--- a/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFA228-7642-45BE-9333-17A3DDBE88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="rumor" sheetId="2" r:id="rId2"/>
+    <sheet name="zone" sheetId="3" r:id="rId3"/>
+    <sheet name="unique" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,568 +28,568 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="374">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We've got some hot special dishes waiting for you. #1 Orens and they are all yours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, enjoy your meal!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">healer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you suffering from an injury or illness? #1 Orens and I will begin your treatment immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">healer2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then stay still. I'll have your body back to health in no time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraise1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any unidentified items in your backpack? For #1 Orens, I will appraise all of them for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraise2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'll start appraising your items right away. Wait here for a while.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraise3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems you have nothing to appraise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2 gold bars are required to expand your home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay, your home has been expanded!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拡張できないよう{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems your home can't be expanded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extraTax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="394">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text_JP</t>
+  </si>
+  <si>
+    <t>text_EN</t>
+  </si>
+  <si>
+    <t>food1</t>
+  </si>
+  <si>
+    <t>熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
+  </si>
+  <si>
+    <t>We've got some hot special dishes waiting for you. #1 Orens and they are all yours.</t>
+  </si>
+  <si>
+    <t>food2</t>
+  </si>
+  <si>
+    <t>さあ、ゆっくり食べていって{くれ}！</t>
+  </si>
+  <si>
+    <t>Here, enjoy your meal!</t>
+  </si>
+  <si>
+    <t>healer1</t>
+  </si>
+  <si>
+    <t>怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
+  </si>
+  <si>
+    <t>Are you suffering from an injury or illness? #1 Orens and I will begin your treatment immediately.</t>
+  </si>
+  <si>
+    <t>healer2</t>
+  </si>
+  <si>
+    <t>ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
+  </si>
+  <si>
+    <t>Then stay still. I'll have your body back to health in no time.</t>
+  </si>
+  <si>
+    <t>appraise1</t>
+  </si>
+  <si>
+    <t>バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
+  </si>
+  <si>
+    <t>Do you have any unidentified items in your backpack? For #1 Orens, I will appraise all of them for you.</t>
+  </si>
+  <si>
+    <t>appraise2</t>
+  </si>
+  <si>
+    <t>{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
+  </si>
+  <si>
+    <t>I'll start appraising your items right away. Wait here for a while.</t>
+  </si>
+  <si>
+    <t>appraise3</t>
+  </si>
+  <si>
+    <t>鑑定するものがないよう{だ}。</t>
+  </si>
+  <si>
+    <t>It seems you have nothing to appraise.</t>
+  </si>
+  <si>
+    <t>expand1</t>
+  </si>
+  <si>
+    <t>ホームの拡張には金塊#2本が必要{だ}。</t>
+  </si>
+  <si>
+    <t>#2 gold bars are required to expand your home.</t>
+  </si>
+  <si>
+    <t>expand2</t>
+  </si>
+  <si>
+    <t>よし、ホームを拡張した{よ}！</t>
+  </si>
+  <si>
+    <t>Okay, your home has been expanded!</t>
+  </si>
+  <si>
+    <t>expand3</t>
+  </si>
+  <si>
+    <t>拡張できないよう{だ}。</t>
+  </si>
+  <si>
+    <t>It seems your home can't be expanded.</t>
+  </si>
+  <si>
+    <t>extraTax</t>
+  </si>
+  <si>
+    <t>現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
   </si>
   <si>
     <t xml:space="preserve">
 Currently, your additional monthly tax payment to Mysilia is #1. If you want to change the amount, just let me know.</t>
   </si>
   <si>
-    <t xml:space="preserve">extraTax2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alright, I've changed your additional tax payment to Mysilia to #1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banker1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You currently have #1 Orens in your account. How much do you want to deposit?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banker2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You currently have #1 Orens in your account. How much do you want to withdraw?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banker3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very well. The money will be added to your account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banker4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very well. Here is your money.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noDrawingRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You don't have a reception room for visitors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nomoney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apparently, you don't have enough money.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alreadyFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You seem to be full already.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questAccept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You will accept my request? Very well, I'm counting on you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems you're taking on a lot of requests. Deal with the others first.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questInProgress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is everything alright with your task?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questComplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, I see you have finished my request! Thank you. Here is your reward.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bird1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh I love watching birds!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bird2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いく{よ}！
+    <t>extraTax2</t>
+  </si>
+  <si>
+    <t>{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
+  </si>
+  <si>
+    <t>Alright, I've changed your additional tax payment to Mysilia to #1.</t>
+  </si>
+  <si>
+    <t>banker1</t>
+  </si>
+  <si>
+    <t>現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
+  </si>
+  <si>
+    <t>You currently have #1 Orens in your account. How much do you want to deposit?</t>
+  </si>
+  <si>
+    <t>banker2</t>
+  </si>
+  <si>
+    <t>現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
+  </si>
+  <si>
+    <t>You currently have #1 Orens in your account. How much do you want to withdraw?</t>
+  </si>
+  <si>
+    <t>banker3</t>
+  </si>
+  <si>
+    <t>{よし}、金は確かに預かった{よ}。</t>
+  </si>
+  <si>
+    <t>Very well. The money will be added to your account.</t>
+  </si>
+  <si>
+    <t>banker4</t>
+  </si>
+  <si>
+    <t>{よし}、ではこれを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t>Very well. Here is your money.</t>
+  </si>
+  <si>
+    <t>noDrawingRoom</t>
+  </si>
+  <si>
+    <t>面会のための応接室がないみたい{だ}。</t>
+  </si>
+  <si>
+    <t>You don't have a reception room for visitors.</t>
+  </si>
+  <si>
+    <t>nomoney</t>
+  </si>
+  <si>
+    <t>どうやら金が足りないみたい{だ}。</t>
+  </si>
+  <si>
+    <t>Apparently, you don't have enough money.</t>
+  </si>
+  <si>
+    <t>alreadyFull</t>
+  </si>
+  <si>
+    <t>君はすでに満腹のよう{だ}。</t>
+  </si>
+  <si>
+    <t>You seem to be full already.</t>
+  </si>
+  <si>
+    <t>questAccept</t>
+  </si>
+  <si>
+    <t>{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
+  </si>
+  <si>
+    <t>You will accept my request? Very well, I'm counting on you.</t>
+  </si>
+  <si>
+    <t>questFull</t>
+  </si>
+  <si>
+    <t>随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
+  </si>
+  <si>
+    <t>It seems you're taking on a lot of requests. Deal with the others first.</t>
+  </si>
+  <si>
+    <t>questInProgress</t>
+  </si>
+  <si>
+    <t>頼んでいた依頼は順調{か}？</t>
+  </si>
+  <si>
+    <t>Is everything alright with your task?</t>
+  </si>
+  <si>
+    <t>questComplete</t>
+  </si>
+  <si>
+    <t>{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
+  </si>
+  <si>
+    <t>Oh, I see you have finished my request! Thank you. Here is your reward.</t>
+  </si>
+  <si>
+    <t>bird1</t>
+  </si>
+  <si>
+    <t>{おお}、バードウォッチングは私も好き{だ}！</t>
+  </si>
+  <si>
+    <t>Oh I love watching birds!</t>
+  </si>
+  <si>
+    <t>bird2</t>
+  </si>
+  <si>
+    <t>いく{よ}！
 うふふ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Okay, no turning back now!
+    <t>Okay, no turning back now!
 Come on!</t>
   </si>
   <si>
-    <t xml:space="preserve">bird3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay sweetie, I need #1 Orens in front.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are...quite attractive. I'll buy you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lockpick_purse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likely a lost property. But hey, do I care?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You want me to settle in your home?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfortunately, I cannot join you right now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk_hobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">趣味は#1{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My hobby is #1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk_fav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My favorite? I like #1 and I really have a thing for #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slave_buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You want #2? Oh, you have pretty good taste! It will cost you #1 orens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slave_buy2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 is yours from now on. Take a good care of your new pet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1? Yeah, let me show you where he was.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">からかっているの{か}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funny joke.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upgrade_heath1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will need #1 to upgrade the hearth stone to level #2.#3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upgrade_heath2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great, this should help our home to advance further!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invest1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interested in investing? You have invested #2 orens so far and #zone is now seeking #1 orens investment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invest2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you! Your investment will make #zone more prosperous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invest_shop1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, do you want to invest in my shop? It will cost you #1 orens. I hope you got the money.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invest_shop2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You made my day!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questCompleteDeliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, you've brought me #1! Thank you. Here is your reward.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questCompleteDeliverExtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
+    <t>bird3</t>
+  </si>
+  <si>
+    <t>そう{だな}、#1オレンを前払いで{くれ}。</t>
+  </si>
+  <si>
+    <t>Okay sweetie, I need #1 Orens in front.</t>
+  </si>
+  <si>
+    <t>tail1</t>
+  </si>
+  <si>
+    <t>なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
+  </si>
+  <si>
+    <t>You are...quite attractive. I'll buy you.</t>
+  </si>
+  <si>
+    <t>tail2</t>
+  </si>
+  <si>
+    <t>tail3</t>
+  </si>
+  <si>
+    <t>lockpick_purse</t>
+  </si>
+  <si>
+    <t>これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
+  </si>
+  <si>
+    <t>Likely a lost property. But hey, do I care?</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>私に君のホームの住人になれというの{か}？</t>
+  </si>
+  <si>
+    <t>You want me to settle in your home?</t>
+  </si>
+  <si>
+    <t>invite2</t>
+  </si>
+  <si>
+    <t>残念{だが}、私にはやらなければならないことがある{のだ}。</t>
+  </si>
+  <si>
+    <t>Unfortunately, I cannot join you right now.</t>
+  </si>
+  <si>
+    <t>invite3</t>
+  </si>
+  <si>
+    <t>君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
+  </si>
+  <si>
+    <t>If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
+  </si>
+  <si>
+    <t>talk_hobby</t>
+  </si>
+  <si>
+    <t>趣味は#1{だ}。</t>
+  </si>
+  <si>
+    <t>My hobby is #1.</t>
+  </si>
+  <si>
+    <t>talk_fav</t>
+  </si>
+  <si>
+    <t>好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
+  </si>
+  <si>
+    <t>My favorite? I like #1 and I really have a thing for #2.</t>
+  </si>
+  <si>
+    <t>slave_buy</t>
+  </si>
+  <si>
+    <t>#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
+  </si>
+  <si>
+    <t>You want #2? Oh, you have pretty good taste! It will cost you #1 orens.</t>
+  </si>
+  <si>
+    <t>slave_buy2</t>
+  </si>
+  <si>
+    <t>今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
+  </si>
+  <si>
+    <t>#1 is yours from now on. Take a good care of your new pet.</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>#1{か}？{よし}、案内してあげ{る}。</t>
+  </si>
+  <si>
+    <t>#1? Yeah, let me show you where he was.</t>
+  </si>
+  <si>
+    <t>goto2</t>
+  </si>
+  <si>
+    <t>からかっているの{か}？</t>
+  </si>
+  <si>
+    <t>Funny joke.</t>
+  </si>
+  <si>
+    <t>upgrade_heath1</t>
+  </si>
+  <si>
+    <t>盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
+  </si>
+  <si>
+    <t>We will need #1 to upgrade the hearth stone to level #2.#3</t>
+  </si>
+  <si>
+    <t>upgrade_heath2</t>
+  </si>
+  <si>
+    <t>{よし}、これでこの場所もより発展すること{だろう}！</t>
+  </si>
+  <si>
+    <t>Great, this should help our home to advance further!</t>
+  </si>
+  <si>
+    <t>invest1</t>
+  </si>
+  <si>
+    <t>投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
+  </si>
+  <si>
+    <t>Interested in investing? You have invested #2 orens so far and #zone is now seeking #1 orens investment.</t>
+  </si>
+  <si>
+    <t>invest2</t>
+  </si>
+  <si>
+    <t>{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
+  </si>
+  <si>
+    <t>Thank you! Your investment will make #zone more prosperous.</t>
+  </si>
+  <si>
+    <t>invest_shop1</t>
+  </si>
+  <si>
+    <t>投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
+  </si>
+  <si>
+    <t>Oh, do you want to invest in my shop? It will cost you #1 orens. I hope you got the money.</t>
+  </si>
+  <si>
+    <t>invest_shop2</t>
+  </si>
+  <si>
+    <t>{ありがとう}！これでいい商売ができる{よ}。</t>
+  </si>
+  <si>
+    <t>You made my day!</t>
+  </si>
+  <si>
+    <t>questCompleteDeliver</t>
+  </si>
+  <si>
+    <t>{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
+  </si>
+  <si>
+    <t>Oh, you've brought me #1! Thank you. Here is your reward.</t>
+  </si>
+  <si>
+    <t>questCompleteDeliverExtra</t>
+  </si>
+  <si>
+    <t>{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
     <t xml:space="preserve">Oh, this is certainly the item I asked for. I'll give you a reward that's worthy of #1. </t>
   </si>
   <si>
-    <t xml:space="preserve">miral_medal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ho ho ho! You got small medals! Let me see, let me see! Would you like to trade them for one of my proud works?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miral_medal2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふん！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hump!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_criminal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't have business with criminals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どこに行きたい{のだ}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You looking for someone?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tgはしゅんとなった…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg stops talking...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutup2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg hugs you.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうしようもない変態{だな}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're a hopeless pervert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insult2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems you've finally become normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tgはこくんと肯いた)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg gives a small nod.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tgはやんわりと断った)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg gently refuses your proposal.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliver_purse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How nice of you to take the trouble to bring it. You're a model citizen indeed!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">news1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
+    <t>miral_medal</t>
+  </si>
+  <si>
+    <t>ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
+  </si>
+  <si>
+    <t>Ho ho ho! You got small medals! Let me see, let me see! Would you like to trade them for one of my proud works?</t>
+  </si>
+  <si>
+    <t>miral_medal2</t>
+  </si>
+  <si>
+    <t>ふん！</t>
+  </si>
+  <si>
+    <t>Hump!</t>
+  </si>
+  <si>
+    <t>shop_criminal</t>
+  </si>
+  <si>
+    <t>犯罪者に売るものはない{よ}。</t>
+  </si>
+  <si>
+    <t>I don't have business with criminals.</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>どこに行きたい{のだ}？</t>
+  </si>
+  <si>
+    <t>You looking for someone?</t>
+  </si>
+  <si>
+    <t>shutup</t>
+  </si>
+  <si>
+    <t>(#tgはしゅんとなった…)</t>
+  </si>
+  <si>
+    <t>(#tg stops talking...)</t>
+  </si>
+  <si>
+    <t>shutup2</t>
+  </si>
+  <si>
+    <t>(#tgはあなたに抱きついた)</t>
+  </si>
+  <si>
+    <t>(#tg hugs you.)</t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t>どうしようもない変態{だな}。</t>
+  </si>
+  <si>
+    <t>You're a hopeless pervert.</t>
+  </si>
+  <si>
+    <t>insult2</t>
+  </si>
+  <si>
+    <t>ようやくまともになったよう{だな}。</t>
+  </si>
+  <si>
+    <t>It seems you've finally become normal.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>(#tgはこくんと肯いた)</t>
+  </si>
+  <si>
+    <t>(#tg gives a small nod.)</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t>(#tgはやんわりと断った)</t>
+  </si>
+  <si>
+    <t>(#tg gently refuses your proposal.)</t>
+  </si>
+  <si>
+    <t>deliver_purse</t>
+  </si>
+  <si>
+    <t>わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
+  </si>
+  <si>
+    <t>How nice of you to take the trouble to bring it. You're a model citizen indeed!</t>
+  </si>
+  <si>
+    <t>news1</t>
+  </si>
+  <si>
+    <t>この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
     <t xml:space="preserve">There's a place called #1 around here. If you're interested, it might be worth exploring. </t>
   </si>
   <si>
-    <t xml:space="preserve">news2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfortunately, I have no good news right now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bout1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">力試しをしたいの{か}？
+    <t>news2</t>
+  </si>
+  <si>
+    <t>残念{だが}、これといった情報は今はない{な}。</t>
+  </si>
+  <si>
+    <t>Unfortunately, I have no good news right now.</t>
+  </si>
+  <si>
+    <t>bout1</t>
+  </si>
+  <si>
+    <t>力試しをしたいの{か}？
 本気{か}？
 私に喧嘩を売るというの{か}？</t>
   </si>
   <si>
-    <t xml:space="preserve">You want to test your strength?
+    <t>You want to test your strength?
 Are you serious?
 Are you picking a fight with me?</t>
   </si>
   <si>
-    <t xml:space="preserve">bout2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、いい度胸{だ}！
+    <t>bout2</t>
+  </si>
+  <si>
+    <t>{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
   </si>
@@ -594,109 +599,109 @@
 Alright, let's see what you've got! </t>
   </si>
   <si>
-    <t xml:space="preserve">what</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なん{だ}？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">becomeMaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alright, I'm your maid from today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sellFame1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
+    <t>what</t>
+  </si>
+  <si>
+    <t>なん{だ}？</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>becomeMaid</t>
+  </si>
+  <si>
+    <t>{よし}、今日から私が君のメイド{だ}。</t>
+  </si>
+  <si>
+    <t>Alright, I'm your maid from today.</t>
+  </si>
+  <si>
+    <t>sellFame1</t>
+  </si>
+  <si>
+    <t>{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
     <t xml:space="preserve">Ha ha, #brother, are you that desperate for money? Alright, I'll buy your reputation for #1 orens. </t>
   </si>
   <si>
-    <t xml:space="preserve">sellFame2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks, I'll make good use of your reputation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you wish to be blessed? Very well, bow your head!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lockTooHard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This lock seems too complicated for me. Sorry, but you’ll have to handle it yourself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loytel_bill_give1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of course... I appreciate you helping me with my debt repayment. Alright, let's deal with this small debt bill first. Throw it into tax chest, and report to me once the repayment is complete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loytel_bill_give2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of course... It aches me to give you this, but here's the next bill. Come talk to me again once you've completed the payment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loytel_bill_give_given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have the debt bill. It's important, so please don't lose it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loytel_bill_give_wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
+    <t>sellFame2</t>
+  </si>
+  <si>
+    <t>{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
+  </si>
+  <si>
+    <t>Thanks, I'll make good use of your reputation.</t>
+  </si>
+  <si>
+    <t>blessing</t>
+  </si>
+  <si>
+    <t>祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
+  </si>
+  <si>
+    <t>Do you wish to be blessed? Very well, bow your head!</t>
+  </si>
+  <si>
+    <t>lockTooHard</t>
+  </si>
+  <si>
+    <t>この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
+  </si>
+  <si>
+    <t>This lock seems too complicated for me. Sorry, but you’ll have to handle it yourself.</t>
+  </si>
+  <si>
+    <t>loytel_bill_give1</t>
+  </si>
+  <si>
+    <t>借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
+  </si>
+  <si>
+    <t>Of course... I appreciate you helping me with my debt repayment. Alright, let's deal with this small debt bill first. Throw it into tax chest, and report to me once the repayment is complete.</t>
+  </si>
+  <si>
+    <t>loytel_bill_give2</t>
+  </si>
+  <si>
+    <t>そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
+  </si>
+  <si>
+    <t>Of course... It aches me to give you this, but here's the next bill. Come talk to me again once you've completed the payment.</t>
+  </si>
+  <si>
+    <t>loytel_bill_give_given</t>
+  </si>
+  <si>
+    <t>借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
+  </si>
+  <si>
+    <t>You have the debt bill. It's important, so please don't lose it.</t>
+  </si>
+  <si>
+    <t>loytel_bill_give_wait</t>
+  </si>
+  <si>
+    <t>その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
     <t xml:space="preserve">I'm not quite ready for the next bill yet... Can you wait a little longer? </t>
   </si>
   <si>
-    <t xml:space="preserve">loytel_bill_give_lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Do you recall when I told you, 'Don't lose it'? Here’s another, so take care of it this time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暇{だ}。
+    <t>loytel_bill_give_lost</t>
+  </si>
+  <si>
+    <t>…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
+  </si>
+  <si>
+    <t>...Do you recall when I told you, 'Don't lose it'? Here’s another, so take care of it this time.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>暇{だ}。
 ん？ 何か用{か}？
 たまには豪勢な食事をしたい{な}。
 永遠の盟約…？そんな言葉は聞いたことがない{な}。
@@ -705,7 +710,7 @@
 #aka？…いったい誰のこと{だ}？</t>
   </si>
   <si>
-    <t xml:space="preserve">I've got nothing to do.
+    <t>I've got nothing to do.
 Eh? What do you want?
 You're an adventurer right? Got any news from afar?
 The Eternal League? Never heard of it.
@@ -714,70 +719,70 @@
 #aka? I've never heard of you.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">経済の話題には関心がある{のだ}。
+    <t>interest_economy</t>
+  </si>
+  <si>
+    <t>経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
 プラチナ硬貨はなかなか手に入らない{な}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm very much into economics.
+    <t>I'm very much into economics.
 Money and currency are critical to our society.
 Do you have any good ideas for investments?
 Platinum coins are a lot rarer than gold. Spend them wisely.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科学について語るのが好き{だ}。
+    <t>interest_science</t>
+  </si>
+  <si>
+    <t>科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
 新王国イエルでは、機械仕掛けの人形が人間の仕事をこなしているそう{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I like talking about science.
+    <t>I like talking about science.
 Science in Eyth Terre was far more advanced than ours.
 In Eyth Terre, magic and science were thought to be opposites.
 They say mechanical puppets are doing the work of humans in the New Kingdom of Yerl.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色々なところを旅するのが好き{だ}。
+    <t>interest_travel</t>
+  </si>
+  <si>
+    <t>色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
 旅に出るなら、食料は十分に用意しておいた方がいい{よ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I like traveling I've been to so many places.
+    <t>I like traveling I've been to so many places.
 Lumiest is the famous city of art.
 The land of North Tyris has countless ruins and dungeons on it. They are called the ruins of Nefia.
 You should never leave home without an ample supply of food.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界の情勢に興味がある{のだ}。
+    <t>interest_world</t>
+  </si>
+  <si>
+    <t>世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
 ザナンには、どうやら帝国の息がかかっているらしい{よ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm interested in world affairs.
+    <t>I'm interested in world affairs.
 Euderna is a powerful empire in the deserts on the eastern continent.
 It's said the New Kingdom of Yerl was founded by slaves who escaped from the empire.
 Zanan is an old kingdom that values history and honor, but it's apparently a puppet of the empire.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信仰こそ何よりも大事{だ}。
+    <t>interest_religion</t>
+  </si>
+  <si>
+    <t>信仰こそ何よりも大事{だ}。
 神の存在なくしてこの世は無意味{だ}。
 癒やしの女神の頭の翼の羽には、どんな難病でも治す力があると言われてい{る}。
 たまに大地が揺れるのは、オパートスが寝返りをうっているからだそう{だ}。
@@ -786,7 +791,7 @@
 噂によれば、機械のマニはもともと人間だったよう{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Faith is the most precious of all.
+    <t>Faith is the most precious of all.
 Our lives would be meaningless without the gods.
 It is said that the feathers that fall from the small wings on the head of the Goddess of Healing have the power to heal any incurable disease.
 The earth shakes sometimes because Opatos is turning over.
@@ -795,40 +800,40 @@
 Rumor has it that Mani of the Machine, was originally human.</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
+    <t>interest_human</t>
+  </si>
+  <si>
+    <t>十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
 エレアの住む森など、全部燃やしてしまえばいい{のだ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Elea tried to leave us in peril during the Ten Years War.
+    <t>Elea tried to leave us in peril during the Ten Years War.
 The time has come for us humans to prosper.
 We no longer need any help from Elea.
 Burn the old forests!</t>
   </si>
   <si>
-    <t xml:space="preserve">interest_elea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
+    <t>interest_elea</t>
+  </si>
+  <si>
+    <t>人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
 なぜ、森の人たちをそっとしておくことができないの{だろう}？</t>
   </si>
   <si>
-    <t xml:space="preserve">Humans need to be more humble. We should pay more respect to older races.
+    <t>Humans need to be more humble. We should pay more respect to older races.
 Humans once called Elea their mother.
 The people of the old forests are not fond of fighting. They do not want to interfere or be interfered with.
 Why can't we leave Eleas alone?</t>
   </si>
   <si>
-    <t xml:space="preserve">shopkeeper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
+    <t>shopkeeper</t>
+  </si>
+  <si>
+    <t>いらっしゃい。ゆっくり見ていって{くれ}。
 品揃えには自信がある{のだ}。
 店の経営は、なかなか難しい{な}。
 ごろつきを追い払えるぐらい強くないと、店主はつとまらない{よ}。
@@ -839,7 +844,7 @@
 武器と防具はきちんと鑑定されたものでないと、高くは買い取れない{よ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to my shop!
+    <t>Welcome to my shop!
 We have the best selection of goods!
 Running a store is hard work!
 I can handle bandits myself. We have to be tough.
@@ -850,62 +855,62 @@
 I can't give you a fair price if your weapons and armors aren't fully identified.</t>
   </si>
   <si>
-    <t xml:space="preserve">guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
+    <t>guard</t>
+  </si>
+  <si>
+    <t>市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">It is our duty to protect citizens.
+    <t>It is our duty to protect citizens.
 Report to me if you see anyone suspicious.</t>
   </si>
   <si>
-    <t xml:space="preserve">banker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
+    <t>banker</t>
+  </si>
+  <si>
+    <t>お客様のお金は何よりも大事{だ}。
 お金で買えない価値があ{る}。
 当店へ{ようこそ}！</t>
   </si>
   <si>
-    <t xml:space="preserve">Your money is more important than anything else.
+    <t>Your money is more important than anything else.
 There are some things money can't buy.
 Welcome to our bank!</t>
   </si>
   <si>
-    <t xml:space="preserve">bitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey sexy, wanna relax for a while?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お客さんも悪い人間{だな}。
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
+  </si>
+  <si>
+    <t>Hey sexy, wanna relax for a while?</t>
+  </si>
+  <si>
+    <t>slaver</t>
+  </si>
+  <si>
+    <t>お客さんも悪い人間{だな}。
 ひひひ…旦那も好き者{だな}。</t>
   </si>
   <si>
-    <t xml:space="preserve">He he he.  I think I have just what you need.
+    <t>He he he.  I think I have just what you need.
 Don't look at me like that.</t>
   </si>
   <si>
-    <t xml:space="preserve">bored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(退屈そうにあなたを見ている)
+    <t>bored</t>
+  </si>
+  <si>
+    <t>(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
   <si>
-    <t xml:space="preserve">(#me looks bored. )
+    <t>(#me looks bored. )
 (#me glances at you and steps back.)</t>
   </si>
   <si>
-    <t xml:space="preserve">hint</t>
+    <t>hint</t>
   </si>
   <si>
     <r>
@@ -941,14 +946,13 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
+      <t>依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rabbit's tails are said to bring good luck to those who eat them.
+    <t>Rabbit's tails are said to bring good luck to those who eat them.
 Don't underestimate the rock thrower. His rock can be very deadly.
 I met my god in a dream!
 Some nobles collect strange things.
@@ -969,10 +973,10 @@
 If you find requests difficult, one option is to sell your fame.</t>
   </si>
   <si>
-    <t xml:space="preserve">fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
 質の良いベッドで眠ると睡眠の効果があがるぞ。
@@ -990,7 +994,7 @@
 水泳のスキルがあれば、他の大陸に泳いで渡ることができる。</t>
   </si>
   <si>
-    <t xml:space="preserve">If you worship Kumiromi, you might find seeds in rotten meat.
+    <t>If you worship Kumiromi, you might find seeds in rotten meat.
 Do not ever waste material kits on normal items!
 Nutrient-dense food are real value if you feed them to your pet.
 Better tools give you better results for your skills. Better beds give you better dreams if you sleep in them.
@@ -1008,10 +1012,10 @@
 If you have the swimming skill, you can swim across to another continent.</t>
   </si>
   <si>
-    <t xml:space="preserve">fortune_false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
+    <t>fortune_false</t>
+  </si>
+  <si>
+    <t>指追加というすばらしい指輪があるそうだ。
 杖はしばらく地面に置いておけば充填されるぞ！
 何を願えばいいかわからない？アスールの秘宝を試すといい。
 宝石はプラチナ硬貨と交換することができる。
@@ -1036,7 +1040,7 @@
 帰還場所を間違うと大変なことになるかもしれない。</t>
   </si>
   <si>
-    <t xml:space="preserve">A ring of extra ring finger is useless if not enchanted.
+    <t>A ring of extra ring finger is useless if not enchanted.
 A staff may recharge if you drop it for awhile.
 Not sure what you should wish for? Try secret artifact of milas.
 Gems can be traded for platinum coins.
@@ -1061,102 +1065,102 @@
 It would be really bad if something wrong happenes when you cast the return spell.</t>
   </si>
   <si>
-    <t xml:space="preserve">mayor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手続きなら秘書を通して{くれ}。
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">You can go through my secretary if you need paperworks.
+    <t>You can go through my secretary if you need paperworks.
 What do you want? I'm quite busy.
 Investments to the town are always welcome.</t>
   </si>
   <si>
-    <t xml:space="preserve">secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">街への投資はいかがですか？
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to invest to the town?
+    <t>Would you like to invest to the town?
 How may I serve you today?</t>
   </si>
   <si>
-    <t xml:space="preserve">mysilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
+    <t>mysilia</t>
+  </si>
+  <si>
+    <t>ミシリアでは人間とエレアが平和に暮らしている{よ}。
 十年戦争でこの国は大きな痛手を負ってしまった{のだ}。
 ジョナン公の世継ぎ、エフロンド様の良い噂はあまり耳にしない{な}。
 十年戦争の後、この国は謎の疫病に襲われ{た}。一説では、あのナイミールの奇跡の風に運ばれて、病が蔓延したといわれてい{る}。
 ミシリアは、この先どうなってしまうの{だろう}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Humans and Eleas live peacefully in Mysilia.
+    <t>Humans and Eleas live peacefully in Mysilia.
 The Ten Years' War has hurt this country greatly.
 We don't hear many good rumors about Lord Jonan's heir, Lord Efrond.
 Our country was struck by a mysterious plague after the Ten Years' War. A rumor is that the disease was spread by that miraculous wind of Nymelle.
 What will happen to Mysilia when the empire rebuilds its strength?</t>
   </si>
   <si>
-    <t xml:space="preserve">olvina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
+    <t>olvina</t>
+  </si>
+  <si>
+    <t>ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
 ファリスに思いっきり罵られたい{よ}。
 オルヴィナは、ミシリアでも随一の観光地{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to Olvina, the village of wine, hot springs and cherry blossoms.
+    <t>Welcome to Olvina, the village of wine, hot springs and cherry blossoms.
 I'm really impressed with Theolucia's enthusiasm for learning.
 Can't wait for another wet tunic contest!
 I want to be cursed by Farris with all her might.
 Olvina is the best tourist village in Mysilia.</t>
   </si>
   <si>
-    <t xml:space="preserve">lothria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
+    <t>lothria</t>
+  </si>
+  <si>
+    <t>フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Lord Cetrus has seldom laughed much ever since Lady Friaune passed away.
+    <t>Lord Cetrus has seldom laughed much ever since Lady Friaune passed away.
 Everyone now calls this fort Willow, but it used to have another name.</t>
   </si>
   <si>
-    <t xml:space="preserve">derphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無法者の街、ダルフィへようこそ。
+    <t>derphy</t>
+  </si>
+  <si>
+    <t>無法者の街、ダルフィへようこそ。
 その道に興味があるなら盗賊ギルドに行くと良い{よ}。
 奴隷は世に必要なもの{だ}。
 アリーナで血を見るのが好き{だ}。
 この街にはガードがいない{のだ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to Derphy, a rotten hive of scum and villainy.
+    <t>Welcome to Derphy, a rotten hive of scum and villainy.
 A lot of thieves hang out here. They have a hideout under the tavern but they won't just let you in.
 Slavery is a very lucrative business. Many people claim it's evil, but even mighty Palmia's economy would disintegrate if they didn't have any slaves to work their fields.
 Nothing beats a bloody match at the arena. If you want to impress the crowd then give them lots of drama and blood.
 Derphy has no city guards, so we can do whatever we want!</t>
   </si>
   <si>
-    <t xml:space="preserve">palmia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルミア国の王都へようこそ。
+    <t>palmia</t>
+  </si>
+  <si>
+    <t>パルミア国の王都へようこそ。
 パルミアは何でも揃っていて便利でいい{が}、広いから人探しが大変{だ}。
 ジャビ様とスターシャ様は、本当に仲がいい{のだ}。
 パルミア名産といえば、貴族のおもちゃ{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Palmia is huge. I got lost in this town all the time. It's really hard to find other people sometimes.
+    <t>Palmia is huge. I got lost in this town all the time. It's really hard to find other people sometimes.
 Welcome to the capital of Palmia!  Our kingdom is old and very prosperous.
 Prince Xabi and Queen Stasha are a beautiful couple.
 One of our special products here are toys that the nobility often buy.
@@ -1164,10 +1168,10 @@
 We have a lot of parties in Palmia. The nobility will throw money at any excuse for a drunken celebration.</t>
   </si>
   <si>
-    <t xml:space="preserve">yowyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
+    <t>yowyn</t>
+  </si>
+  <si>
+    <t>こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
 馬ならここで買って行くと良い{よ}。
 収穫期はいつも人が足りない{な}。
 何もない場所だけど、ゆっくりしていくといい{よ}。
@@ -1175,7 +1179,7 @@
 街を出て東の道沿いに行けば王都パルミア{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">This village is called Yowyn.
+    <t>This village is called Yowyn.
 The horses sold here are the finest in the land.
 We always seem to be short-handed during the harvest season. I'm sure everyone in town would be glad to have you lend a hand.
 Sometimes we see known outlaws heading to the west after they raid our farms or kill our cattle. I wonder if something is out there.
@@ -1185,10 +1189,10 @@
 The air is so fresh and lively here in the countryside. I wouldn't give this up for anything.</t>
   </si>
   <si>
-    <t xml:space="preserve">lumiest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ようこそ、水と芸術の街へ。
+    <t>lumiest</t>
+  </si>
+  <si>
+    <t>ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
 絵画に関してはうるさい{よ}。
@@ -1196,7 +1200,7 @@
 下水道はひどい匂いだし、恐ろしい化け物が出るとの噂{だ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumiest is a city of great culture and art. Welcome to our fine city.
+    <t>Lumiest is a city of great culture and art. Welcome to our fine city.
 I heard there's a town famous for hot springs somewhere.
 Here in Lumiest, you can go fishing anywhere you like.
 I could talk about painting for hours.
@@ -1204,34 +1208,34 @@
 They say something horrible lives in the sewers. It smells horrific though, so I'd never go down there.</t>
   </si>
   <si>
-    <t xml:space="preserve">noyel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
+    <t>noyel</t>
+  </si>
+  <si>
+    <t>えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
 寒いっ！
 少し南に行った所に小さな工房が建ってるのを見た{のだ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">It's colder than death's pecker hanging in a well. But, y'know, welcome to Noyel.
+    <t>It's colder than death's pecker hanging in a well. But, y'know, welcome to Noyel.
 The snow never goes away, but we still have to shovel it so we can get around.
 You can confess your sins at the church. I can't think of a better way to be forgiven for your crimes.
 I'm freezing. I can't feel my fingers.
 A while back I saw a small house south of Noyel. It looked like some sort of workshop.</t>
   </si>
   <si>
-    <t xml:space="preserve">kapul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">潮風が香る{な}。
+    <t>kapul</t>
+  </si>
+  <si>
+    <t>潮風が香る{な}。
 ペットアリーナで観戦するのが趣味{だ}。
 もっと強くなりたいのなら戦士ギルドに行くと良い{よ}。
 ここの海産物は内陸部で高く売れる{のだ}。
 ピラミッドにはどうやったら入れるの{だろう}？</t>
   </si>
   <si>
-    <t xml:space="preserve">Ah, there's nothing like the salty smell of the sea breeze.
+    <t>Ah, there's nothing like the salty smell of the sea breeze.
 I love to watch the brutal fights in the pet arena. You have to be careful though, sometimes audience members catch a stray bullet or get hit by careless dragons.
 If you want the best training a fighter can have, you should check out the fighter's guild.
 The price of seafood cargo is very high farther inland.
@@ -1239,38 +1243,38 @@
 I hear that a lot of the seediest and creepiest people head to Derphy.</t>
   </si>
   <si>
-    <t xml:space="preserve">conery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
+    <t>conery</t>
+  </si>
+  <si>
+    <t>若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
 スターシャ姫万歳！</t>
   </si>
   <si>
-    <t xml:space="preserve">I wish my prince would have a little more moderation as the heir to Palmia.
+    <t>I wish my prince would have a little more moderation as the heir to Palmia.
 It is people like Gilbert who make my prince look bad.
 How courteous and resolute Princess Stasha acts at her age! She is truly an idol of the royal court!
 Long live Princess Stasha!</t>
   </si>
   <si>
-    <t xml:space="preserve">garokk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
+    <t>garokk</t>
+  </si>
+  <si>
+    <t>相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
   </si>
   <si>
-    <t xml:space="preserve">My partner Miral and I have been known each other since we were kids who couldn't even hold a hammer.
+    <t>My partner Miral and I have been known each other since we were kids who couldn't even hold a hammer.
 I have always admired Miral's talent. And yet, here he is, making cat toys while neglecting to fulfill customers' orders.
 Boring. I need a big commission to set my smoldering craftsman's heart aflame!</t>
   </si>
   <si>
-    <t xml:space="preserve">gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フハハハハ！…何だ貴様は？
+    <t>gilbert</t>
+  </si>
+  <si>
+    <t>フハハハハ！…何だ貴様は？
 オパートスの名にかけて、スターシャ姫に近づく悪い虫は俺が全部退治してやる、フハハハハぁ！
 姫様万歳！
 俺も15年前の戦争でブイブイいわせたかったぜ！
@@ -1278,7 +1282,7 @@
 弱きを助け、悪を砕くのだ！</t>
   </si>
   <si>
-    <t xml:space="preserve">Muwahahaha! ...What are you?
+    <t>Muwahahaha! ...What are you?
 By Opatos, I'll squash every bad bug that gets near Princess Stasha! Muwahaha!
 Long live Princess Stasha!
 I wish I was in the war 15 years ago!
@@ -1286,137 +1290,137 @@
 Help the helpless, crush the vileness!</t>
   </si>
   <si>
-    <t xml:space="preserve">jonan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミシリア宮廷に何の用かな？
+    <t>jonan</t>
+  </si>
+  <si>
+    <t>ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
   <si>
-    <t xml:space="preserve">What business do you have at the court of Mysilia?
+    <t>What business do you have at the court of Mysilia?
 I am old but I can't go into hiding just yet.</t>
   </si>
   <si>
-    <t xml:space="preserve">lowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冒険者がこんなところに何のようだね？
+    <t>lowell</t>
+  </si>
+  <si>
+    <t>冒険者がこんなところに何のようだね？
 アシュラムでは、親のいない子どもを養護し、教育している。
 こんな時世だが、子どもたちには元気に育ってほしいと願っているよ。
 教育は重要だ。何の後ろ盾もないこの子たちも、やがては働き口を見つけなければならない。</t>
   </si>
   <si>
-    <t xml:space="preserve">What's an adventurer doing here, eh?
+    <t>What's an adventurer doing here, eh?
 The asylum shelters and educates children who have no parents.
 Even in these times, I hope that our children will grow up healthy and happy.
 Education is important. These children, who have nothing behind them, will eventually have to find a place to work.</t>
   </si>
   <si>
-    <t xml:space="preserve">mapMerchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
+    <t>mapMerchant</t>
+  </si>
+  <si>
+    <t>私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
   </si>
   <si>
-    <t xml:space="preserve">My name is Slan, a servant of Palmia. I'm currently spending my time traveling around the world to improve my skills.
+    <t>My name is Slan, a servant of Palmia. I'm currently spending my time traveling around the world to improve my skills.
 These are indeed valuable books.
 I arrived at this isolated castle on a snowy day and have been staying here for a while.</t>
   </si>
   <si>
-    <t xml:space="preserve">miral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
+    <t>miral</t>
+  </si>
+  <si>
+    <t>おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
   </si>
   <si>
-    <t xml:space="preserve">Oh, a guest! Don't hesitate to play with my cats.
+    <t>Oh, a guest! Don't hesitate to play with my cats.
 My partner and I used to argue about the name of the workshop. If he had any sense of naming, he wouldn't have come up with such a ridiculous name as "Garokk Miral".
 What shall we make for today's meal? Lately, I've been having more fun than blacksmithing thinking about the menu for the cats' meals.</t>
   </si>
   <si>
-    <t xml:space="preserve">nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
+    <t>nino</t>
+  </si>
+  <si>
+    <t>隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
 獣人の商人は珍しいか？ティリスではあまり見かけないかもしれないな。
 西は海洋の国ヴェーリッツァから、東は砂漠の黄金郷ニーサまで出向いて仕入れた自慢の品の数々だ。ゆっくり見ていってくれ。
 いや…これはかぶりものではない。</t>
   </si>
   <si>
-    <t xml:space="preserve">The life of a merchant is nice and carefree, but it wouldn't be bad to settle down in a comfortable town somewhere. Yes, in Kapoor or thereabouts.
+    <t>The life of a merchant is nice and carefree, but it wouldn't be bad to settle down in a comfortable town somewhere. Yes, in Kapoor or thereabouts.
 Is it rare to find a beastman merchant? Perhaps you don't see many of us in Tyris.
 We are proud of the many items we have gathered from Verizzia, the land of the oceans in the west, to Nieca, the golden land of the desert in the east. Take your time and look around.
 No...it's not a costume.</t>
   </si>
   <si>
-    <t xml:space="preserve">nola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am Nola, Acting Mayor. How may I help you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あら、私に何かご用ですか？
+    <t>nola</t>
+  </si>
+  <si>
+    <t>市長代理のノーラです。何かご用ですか？</t>
+  </si>
+  <si>
+    <t>I am Nola, Acting Mayor. How may I help you?</t>
+  </si>
+  <si>
+    <t>stasha</t>
+  </si>
+  <si>
+    <t>あら、私に何かご用ですか？
 パルミアは歴史あるティリスの大国。この王宮に迎えられて光栄です。
 アイドル…？…異国の言葉でしょうか？
 王宮ではファン…あ…み…みなさんにとても良くしていただいています。</t>
   </si>
   <si>
-    <t xml:space="preserve">Oh, how may I help you?
+    <t>Oh, how may I help you?
 Palmia is a kingdom with great history in Tyris. I am honored to be welcomed into this royal palace.
 Idol...? ...Is it a foreign language?
 The fans...ah...p...people at the Royal Palace have been very nice to me.</t>
   </si>
   <si>
-    <t xml:space="preserve">theolucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私は歴史と伝承に興味があります。
+    <t>theolucia</t>
+  </si>
+  <si>
+    <t>私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
   </si>
   <si>
-    <t xml:space="preserve">I am interested in history and folklore.
+    <t>I am interested in history and folklore.
 My sister Farris is very scary when she gets angry.
 The Royal Library of Palmia is a really nice place with a huge collection of books.</t>
   </si>
   <si>
-    <t xml:space="preserve">xabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
+    <t>xabi</t>
+  </si>
+  <si>
+    <t>君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you an adventurer? I'd love to hear your stories.
+    <t>Are you an adventurer? I'd love to hear your stories.
 My father is too strict. I hate it when he nitpicks at everything. I hope Conery doesn't get a bad influence from him.
 Gilbert and Conery have been my friends since childhood.</t>
   </si>
   <si>
-    <t xml:space="preserve">zane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何だね、君は？
+    <t>zane</t>
+  </si>
+  <si>
+    <t>何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
   </si>
   <si>
-    <t xml:space="preserve">What are you?
+    <t>What are you?
 This is not a place for adventurers. You shall leave now.
 …</t>
   </si>
   <si>
-    <t xml:space="preserve">ephrond</t>
+    <t>ephrond</t>
   </si>
   <si>
     <r>
@@ -1435,7 +1439,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1449,7 +1452,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">呑気な顔を並べて、アホウ共が。</t>
+      <t>呑気な顔を並べて、アホウ共が。</t>
     </r>
   </si>
   <si>
@@ -1469,7 +1472,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1483,27 +1485,27 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">They're all a bunch of fools, lining up their silly faces.</t>
+      <t>They're all a bunch of fools, lining up their silly faces.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">eluminaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
+    <t>eluminaire</t>
+  </si>
+  <si>
+    <t>近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
   </si>
   <si>
-    <t xml:space="preserve">Please stay away...Lord Efrond will be angry with me.
+    <t>Please stay away...Lord Efrond will be angry with me.
 The Forest of Vindale...I have never visited it. All the elea who live in Mysiria are "outsiders".
 Looking at the flowers like this makes me sleepy...</t>
   </si>
   <si>
-    <t xml:space="preserve">barrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一曲聴いてくかい？
+    <t>barrich</t>
+  </si>
+  <si>
+    <t>一曲聴いてくかい？
 昔はザナンの王宮に仕えていたんだが、まあ、ヘマをやっちまってな…
 今やミシリアこそが俺の故郷だよ。
 メルヴィンの奴を見かけなかったか？ちょっくら歌の一つでも披露したい気分なんだ。
@@ -1526,17 +1528,16 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
+      <t>I served in the royal court of Zanan long ago, but, well, I screwed up.
 Mysilia is truely my home now.
 Have you seen Melvin? I'm in the mood for a little singing.
 My wife is the most beautiful and brilliant woman in all of Mysilia. She's almost too good for me.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">melvin</t>
+    <t>melvin</t>
   </si>
   <si>
     <r>
@@ -1555,27 +1556,26 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
+      <t>私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
 相棒のグリフィンは野生のミミズクだ。手負いの彼を介抱していたら、懐かれてしまった。今では私の肩を宿り木だと思っているらしい。
 ご婦人方の節操のなさには困ったものだ。
 エフロンド様にお付きのエルミナレという娘、あの娘はまさか…いや、私の考え過ぎか。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">It has already been eight years since my sister married Barrich. Time flies.
+    <t>It has already been eight years since my sister married Barrich. Time flies.
 My family has held the title of Protector of the Forest for generations. In this time of hardship for the Eleas, I would like to prove that this title is not just a name. Of course, it would be best if such an opportunity never presents itself.
 My partner, Griffin, is a wild owl. I took care of him when he was wounded and he got attached to me. Now he thinks my shoulder is his lodging.
 The lack of moderation of the ladies is troubling.
 Eluminaire, the girl who accompanies Lord Efrond, could she be...no, I'm thinking too much.</t>
   </si>
   <si>
-    <t xml:space="preserve">caldorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何だお主は？
+    <t>caldorn</t>
+  </si>
+  <si>
+    <t>何だお主は？
 冒険者とは聞こえがいいが、要はまっとうに働く意志のない流れものではないか？
 帝国の脅威はもちろんだが、腹の底が見えないザナンもまた不気味な存在だ。
 パルミアのゼイン王は名君と名高いが、息子のジャビ王子は道楽者だと聞く。世継ぎに頭を悩まされるのはどの国も同じだな！</t>
@@ -1598,27 +1598,26 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
+      <t>Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
 King Zane of Palmia is a renowned monarch, but I hear his son, Prince Xabi , is a spoiled brat. It seems every country has the same problem with its heir!</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">melilith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which is scarier, younger sisters or cubes? I personally find younger sisters to be more adorable, though.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
+    <t>melilith</t>
+  </si>
+  <si>
+    <t>妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
+  </si>
+  <si>
+    <t>Which is scarier, younger sisters or cubes? I personally find younger sisters to be more adorable, though.</t>
+  </si>
+  <si>
+    <t>seeker</t>
+  </si>
+  <si>
+    <t>やあ、ワタリガラス。なにか用かな。
 お茶でも飲むかい、ワタリガラス。
 私は『探求者』…あるいは『異界渡り』とも呼ばれる男だ。この世のすべての知識を得るために人生を捧げている。見てのとおりの世捨て人さ。
 …しかし、よくぞまあ、こんな辺ぴな場所を見つけたものだな。
@@ -1626,7 +1625,7 @@
 この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Ah, a raven. Do you seek something?
+    <t>Ah, a raven. Do you seek something?
 Would you like some tea, raven?
  I am "Seeker"... or you might call me "Realm Wanderer". I've dedicated my life to acquiring all the knowledge in this world. As you can see, I am a recluse.
 It's quite remarkable that you found such a remote place.
@@ -1634,25 +1633,25 @@
 All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.</t>
   </si>
   <si>
-    <t xml:space="preserve">quru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strange_girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
+    <t>quru</t>
+  </si>
+  <si>
+    <t>何？</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
+  </si>
+  <si>
+    <t>Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
+  </si>
+  <si>
+    <t>strange_girl</t>
+  </si>
+  <si>
+    <t>リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
 あのバケモノたちといっしょにしないでね。
 パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
 パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
@@ -1662,7 +1661,7 @@
 あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
   </si>
   <si>
-    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
+    <t>I don't like those Littles. They talk weird things and it's really creepy!
 Don't lump me in with those monsters.
 When Daddy comes back, I'm gonna ask him so we never come here again.
 Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
@@ -1672,46 +1671,186 @@
 That monster woman is not my mommy. That's obvious!</t>
   </si>
   <si>
-    <t xml:space="preserve">moyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
+    <t>moyer</t>
+  </si>
+  <si>
+    <t>おっとガラガラを引きに来たのかい？</t>
+  </si>
+  <si>
+    <t>Here to spin the prize wheel, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não tenho nada para fazer.  
+Hã? O que você quer?  
+Você é um aventureiro, certo? Alguma novidade de longe?  
+A Liga Eterna? Nunca ouvi falar.  
+Nada supera uma boa e velha cerveja crim depois do trabalho.  
+Gatos... por que eles são tão fofos?  
+#aka? Nunca ouvi falar de você.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu gosto muito de economia.  
+Dinheiro e moeda são fundamentais para nossa sociedade.  
+Você tem boas ideias de investimento?  
+Moedas de platina são muito mais raras que as de ouro. Gaste-as com sabedoria.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosto de falar sobre ciência.  
+A ciência em Eyth Terre era muito mais avançada que a nossa.  
+Em Eyth Terre, magia e ciência eram consideradas opostas.  
+Dizem que marionetes mecânicas estão fazendo o trabalho dos humanos no Novo Reino de Yerl.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosto de viajar, já estive em muitos lugares.  
+Lumiest é a famosa cidade da arte.  
+As terras de North Tyris têm inúmeras ruínas e masmorras. Elas são chamadas de ruínas de Nefia.  
+Você nunca deve sair de casa sem um bom suprimento de comida.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenho interesse em assuntos mundiais.  
+Euderna é um poderoso império nos desertos do continente oriental.  
+Dizem que o Novo Reino de Yerl foi fundado por escravos que fugiram do império.  
+Zanan é um antigo reino que valoriza a história e a honra, mas aparentemente é um fantoche do império.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fé é a mais preciosa de todas.  
+Nossas vidas seriam sem sentido sem os deuses.  
+Dizem que as penas que caem das pequenas asas na cabeça da Deusa da Cura têm o poder de curar qualquer doença incurável.  
+A terra treme às vezes porque Opatos está se virando.  
+Não consigo dormir à noite pensando se Kumiromi é Deus ou Deusa!  
+Você diz que a Deusa da Fortuna é um gato? Hahaha, que bobagem!  
+Corre um boato de que Mani da Máquina foi, originalmente, humano.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Elea tentaram nos abandonar à própria sorte durante a Guerra dos Dez Anos.  
+Chegou a hora de nós, humanos, prosperarmos.  
+Não precisamos mais da ajuda dos Elea.  
+Queimem as velhas florestas!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os humanos precisam ser mais humildes. Devemos respeitar mais as raças mais antigas.  
+Os humanos já chamaram os Elea de sua mãe.  
+O povo das antigas florestas não gosta de lutar. Eles não querem interferir nem ser interferidos.  
+Por que não podemos simplesmente deixar os Elea em paz?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem-vindo à minha loja!  
+Temos a melhor seleção de mercadorias!  
+Administrar uma loja dá muito trabalho!  
+Eu mesmo posso lidar com bandidos. Temos que ser fortes.  
+Entre. Dê uma olhada mais de perto nos meus produtos.  
+Tenho confiança na minha variedade de mercadorias.  
+Veja nossa excelente seleção.  
+Sinto que o mundo está ficando cada vez mais perigoso.  
+Não posso te oferecer um preço justo se suas armas e armaduras não estiverem totalmente identificadas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É nosso dever proteger os cidadãos.  
+Reporte a mim se vir alguém suspeito.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu dinheiro é mais importante do que qualquer outra coisa.  
+Há coisas que o dinheiro não pode comprar.  
+Bem-vindo ao nosso banco!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He he he. Acho que tenho exatamente o que você precisa.  
+Não me olhe assim.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei, delicia, quer relaxar um pouco? Vou te fazer sonhar a noite toda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#me parece entediado.)  
+(#me lança um olhar para você e recua um passo.)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizem que caudas de coelho trazem boa sorte para quem as come.  
+Não subestime o lançador de pedras. As pedras dele podem ser mortais.  
+Encontrei meu deus em um sonho!  
+Alguns nobres colecionam coisas estranhas.  
+Cuidado com os bêbados nas festas! Às vezes, eles jogam coisas absurdas em você.  
+Aqueles ladrões miseráveis, ouvi dizer que são viciados em algumas drogas.  
+Um mago viajante grelhou carne com magia de fogo para mim. Para ser sincero, ficou mais saborosa do que a de muitos lugares!  
+Não consegue cavar a rocha? Por que não tenta fazer uma picareta com um material mais resistente?  
+Dizem que em algum lugar deste continente existe uma árvore gigante onde fadas vivem.  
+Não pagar seus impostos pode te meter em sérios problemas, sabia?  
+Acredite em mim! Eu vi um putit dourado da neve com meus próprios olhos!  
+Ouvi falar de uma lâmpada que brilha com a luz do sol.  
+Se você pegar um peixe grande, não seria um desperdício simplesmente vendê-lo como está?  
+Sabia que você absorve mais nutrientes quando está com fome?  
+Se quiser coletar ervas, tente explorar as florestas de Nefia.  
+Se treinar sua natação, isso aumentará sua resistência!  
+Dizem que os gourmets conseguem até identificar quais cogumelos são venenosos.  
+O informante pode abrir um baú de tesouro trancado para você.  
+Se achar os pedidos difíceis, uma opção é vender sua fama.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se você adorar Kumiromi, pode encontrar sementes em carne podre.  
+Nunca desperdice kits de materiais em itens comuns!  
+Comida rica em nutrientes tem um valor real se você alimentá-la ao seu pet.  
+Melhores ferramentas trazem melhores resultados para suas habilidades. Melhores camas trazem melhores sonhos se você dormir nelas.  
+Você terá mais chances de acertos críticos contra oponentes atordoados.  
+Enquanto estiverem envenenados, sangrando ou paralisados, seus oponentes não se regenerarão.  
+Os cubos não se dividirão quando estiverem em más condições.  
+Você pode usar um pergaminho de reconstrução em um artefato para recriá-lo.  
+Você pode evitar ser atordoado aumentando sua resistência ao som.  
+Você pode evitar ficar insano aumentando sua resistência à mente.  
+Abençoar uma vara mágica é uma boa ideia. Mas os efeitos das varas abençoadas são menos dramáticos do que os das poções ou pergaminhos abençoados.  
+Quando você está molhado, danos de fogo não serão um problema, mas danos elétricos serão uma ameaça séria.  
+Se vomitar muito em um curto período, sofrerá de anorexia. Quando tiver anorexia, não coma. Apenas beba poções e água.  
+Uma poção abençoada de restauração do corpo ou do espírito fortalecerá seu corpo ou espírito.  
+Jogue poções amaldiçoadas de restauração do corpo ou do espírito em oponentes poderosos.  
+Se você tiver a habilidade de natação, poderá atravessar para outro continente nadando.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um anel de dedo extra é inútil se não for encantado.  
+Um cajado pode recarregar se você deixá-lo no chão por um tempo.  
+Não sabe o que desejar? Experimente "artefato secreto de Milas".  
+Gemas podem ser trocadas por moedas de platina.  
+Sempre abençoe os mapas do tesouro antes de lê-los.  
+Meo... eow...  
+O que você deseja?  
+Se você gritar 'Guardas!' na janela de chat, eles podem vir ajudá-lo rapidamente.  
+Há um jeito de fazer um Deus seu mascote.  
+Assassinos de jogadores aguardam você ao entrar nos Moongates.  
+Oh, que pena. Odeio dizer isso, mas quem ler esta profecia *será* amaldiçoado.  
+Fique de olho! Cuidado! A-Ali, sua irmã mais nova! Corra!  
+Nyo BUMP-BUMP para você!  
+O jogo não pôde escolher previsões válidas, pois seu jogo salvo está corrompido.  
+Dizem que matar gatos traz azar.  
+Os guardas ficarão felizes se você atacá-los nu.  
+Dizem que existe um artefato supremo exclusivo para suas irmãs mais novas.  
+Um rancho perto de Derphy pode ser altamente lucrativo.  
+O imposto será reduzido se seu carma for alto.  
+Os lojistas pagarão mais por cocô de monstro mais pesado.  
+Beber poções de cura amaldiçoadas às vezes deixa você doente.  
+Você *deveria* abençoar o sangue de Hermes antes de bebê-lo!  
+Seria realmente ruim se algo desse errado ao lançar o feitiço de retorno.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você pode falar com minha secretária se precisar de documentos.  
+O que você quer? Estou bastante ocupado.  
+Investimentos na cidade são sempre bem-vindos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gostaria de investir na cidade?  
+Como posso servi-lo hoje?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1725,13 +1864,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1757,7 +1894,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1765,89 +1902,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1906,13 +1993,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1926,9 +2029,15 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvPr id="2" name="Rectangle 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1940,7 +2049,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1950,9 +2059,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1962,56 +2077,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -2064,1612 +2179,1638 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="12" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:4" ht="12" customHeight="1"/>
+    <row r="3" spans="1:4" ht="12" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12" customHeight="1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="33">
+      <c r="A32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4" ht="33">
+      <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A50" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A51" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:4" ht="33">
+      <c r="A52" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:4" ht="49.5">
+      <c r="A65" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:4" ht="49.5">
+      <c r="A66" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:4" ht="33">
+      <c r="A73" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>216</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
+    <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="2" spans="1:4">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="396">
+      <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="297">
+      <c r="A6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="330">
+      <c r="A7" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" ht="379.5">
+      <c r="A8" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="409.5">
+      <c r="A9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" ht="409.5">
+      <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" ht="297">
+      <c r="A11" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" ht="409.5">
+      <c r="A12" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" ht="409.5">
+      <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4" ht="99">
+      <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" ht="165">
+      <c r="A15" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" ht="132">
+      <c r="A17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" ht="33">
+      <c r="A18" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="200.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" ht="409.5">
+      <c r="A19" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="409.5">
+      <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:4" ht="409.5">
+      <c r="A21" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4" ht="49.5">
+      <c r="A22" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4" ht="33">
+      <c r="A23" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>275</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="109.140625" customWidth="1"/>
+    <col min="4" max="4" width="123" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="99">
+      <c r="A5" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="82.5">
+      <c r="A6" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="33">
+      <c r="A7" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="99">
+      <c r="A8" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="99">
+      <c r="A9" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="148.5">
+      <c r="A10" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="99">
+      <c r="A11" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="82.5">
+      <c r="A12" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="115.5">
+      <c r="A13" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="111" customWidth="1"/>
+    <col min="4" max="4" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="82.5">
+      <c r="A5" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="82.5">
+      <c r="A6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="99">
+      <c r="A7" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="33">
+      <c r="A8" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="82.5">
+      <c r="A9" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="66">
+      <c r="A10" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="82.5">
+      <c r="A11" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="99">
+      <c r="A12" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="82.5">
+      <c r="A14" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="49.5">
+      <c r="A15" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="66">
+      <c r="A16" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="49.5">
+      <c r="A17" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="60">
+      <c r="A18" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="49.5">
+      <c r="A19" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="87">
+      <c r="A20" t="s">
         <v>348</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="111">
+      <c r="A21" t="s">
         <v>351</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="106.5">
+      <c r="A22" t="s">
         <v>354</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="132">
+      <c r="A24" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" ht="148.5">
+      <c r="A27" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+    <row r="29" spans="1:4">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFA228-7642-45BE-9333-17A3DDBE88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCA37E-9E16-47BC-8BDD-BCA8EFD7F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,7 +3073,7 @@
     <row r="4" spans="1:4">
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="396">
+    <row r="5" spans="1:4" ht="115.5">
       <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="297">
+    <row r="6" spans="1:4" ht="82.5">
       <c r="A6" s="4" t="s">
         <v>222</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="330">
+    <row r="7" spans="1:4" ht="82.5">
       <c r="A7" s="4" t="s">
         <v>225</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="379.5">
+    <row r="8" spans="1:4" ht="82.5">
       <c r="A8" s="4" t="s">
         <v>228</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.5">
+    <row r="9" spans="1:4" ht="115.5">
       <c r="A9" s="4" t="s">
         <v>231</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.5">
+    <row r="10" spans="1:4" ht="181.5">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="297">
+    <row r="11" spans="1:4" ht="82.5">
       <c r="A11" s="4" t="s">
         <v>237</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.5">
+    <row r="12" spans="1:4" ht="99">
       <c r="A12" s="4" t="s">
         <v>240</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.5">
+    <row r="13" spans="1:4" ht="165">
       <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99">
+    <row r="14" spans="1:4" ht="33">
       <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="165">
+    <row r="15" spans="1:4" ht="49.5">
       <c r="A15" s="4" t="s">
         <v>249</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="132">
+    <row r="17" spans="1:4" ht="33">
       <c r="A17" s="4" t="s">
         <v>255</v>
       </c>

--- a/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E503A8F-FE43-45F4-A3FF-694BD89D095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E34A3-4332-4E84-B538-24DA52881856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="497">
   <si>
     <t>id</t>
   </si>
@@ -1827,6 +1827,417 @@
 Há um jeito de fazer um Deus seu mascote.  
 Assassinos de jogadores aguardam você ao entrar nos Moongates.  
 Oh, que pena. Odeio dizer isso, mas q+B19+B21+B19+B21</t>
+  </si>
+  <si>
+    <t>Temos alguns pratos especiais quentinhos esperando por você. #1 Orens e são todos seus.</t>
+  </si>
+  <si>
+    <t>Aqui, aproveite sua refeição!</t>
+  </si>
+  <si>
+    <t>Está sofrendo com alguma ferida ou enfermidade? #1 Orens e iniciarei seu tratamento imediatamente.</t>
+  </si>
+  <si>
+    <t>Então fique parado. Seu corpo estará curado em instantes.</t>
+  </si>
+  <si>
+    <t>Você tem algum item não identificado em sua mochila? Por #1 Orens, farei a avaliação de todos para você.</t>
+  </si>
+  <si>
+    <t>Começarei a avaliar seus itens agora mesmo. Espere aqui um pouco.</t>
+  </si>
+  <si>
+    <t>Parece que você não tem nada para ser avaliado.</t>
+  </si>
+  <si>
+    <t>São necessárias #2 barras de ouro para expandir sua casa.</t>
+  </si>
+  <si>
+    <t>Pronto, sua casa foi expandida!</t>
+  </si>
+  <si>
+    <t>Parece que sua casa não pode ser expandida.</t>
+  </si>
+  <si>
+    <t>_x000D_
+Atualmente, seu pagamento adicional de impostos mensais para Mysilia é de #1. Se quiser mudar o valor, é só me avisar.</t>
+  </si>
+  <si>
+    <t>Certo, alterei seu pagamento adicional de impostos para Mysilia para #1.</t>
+  </si>
+  <si>
+    <t>Você tem atualmente #1 Orens em sua conta. Quanto deseja depositar?</t>
+  </si>
+  <si>
+    <t>Você tem atualmente #1 Orens em sua conta. Quanto deseja sacar?</t>
+  </si>
+  <si>
+    <t>Muito bem. O dinheiro será adicionado à sua conta.</t>
+  </si>
+  <si>
+    <t>Muito bem. Aqui está o seu dinheiro.</t>
+  </si>
+  <si>
+    <t>Você não tem uma sala de recepção para visitantes.</t>
+  </si>
+  <si>
+    <t>Aparentemente, você não tem dinheiro suficiente.</t>
+  </si>
+  <si>
+    <t>Parece que você já está satisfeito.</t>
+  </si>
+  <si>
+    <t>Vai aceitar meu pedido? Muito bem, estou contando com você.</t>
+  </si>
+  <si>
+    <t>Parece que você está com muitos pedidos. Resolva os outros primeiro.</t>
+  </si>
+  <si>
+    <t>Está tudo bem com sua tarefa?</t>
+  </si>
+  <si>
+    <t>Ah, vejo que concluiu meu pedido! Obrigado. Aqui está sua recompensa.</t>
+  </si>
+  <si>
+    <t>Ah, eu adoro observar os pássaros!</t>
+  </si>
+  <si>
+    <t>Okay, agora não tem mais volta!_x000D_
+Vamos lá!</t>
+  </si>
+  <si>
+    <t>Certo, docinho, preciso de #1 Orens na frente.</t>
+  </si>
+  <si>
+    <t>Você é... bastante atraente. Eu vou te comprar.</t>
+  </si>
+  <si>
+    <t>Provavelmente um objeto perdido. Mas ei, será que me importo?</t>
+  </si>
+  <si>
+    <t>Quer que eu me mude para sua casa?</t>
+  </si>
+  <si>
+    <t>Infelizmente, não posso me juntar a você agora.</t>
+  </si>
+  <si>
+    <t>Se você fosse só um pouquinho mais carismático, quem sabe.#newline(#1 de carisma necessário)</t>
+  </si>
+  <si>
+    <t>Meu hobby é #1.</t>
+  </si>
+  <si>
+    <t>Meu favorito? Gosto de #1 e tenho uma quedinha por #2.</t>
+  </si>
+  <si>
+    <t>Você quer #2? Oh, você tem um gosto refinado! Vai te custar #1 Orens.</t>
+  </si>
+  <si>
+    <t>#1 é seu a partir de agora. Cuide bem do seu novo pet.</t>
+  </si>
+  <si>
+    <t>#1? Sim, deixe-me te mostrar onde ele estava.</t>
+  </si>
+  <si>
+    <t>Boa piada.</t>
+  </si>
+  <si>
+    <t>Precisaremos de #1 para aprimorar a Pedra do Lar até o nível #2.#3</t>
+  </si>
+  <si>
+    <t>Ótimo, isso deve ajudar nosso lar a evoluir ainda mais!</t>
+  </si>
+  <si>
+    <t>Interessado em investir? Você já investiu #2 Orens até agora e #zone está buscando um investimento de #1 Orens.</t>
+  </si>
+  <si>
+    <t>Obrigado! Seu investimento tornará #zone mais próspera.</t>
+  </si>
+  <si>
+    <t>Oh, quer investir na minha loja? Vai te custar #1 Orens. Espero que tenha o dinheiro.</t>
+  </si>
+  <si>
+    <t>Você salvou o meu dia!</t>
+  </si>
+  <si>
+    <t>Oh, você trouxe o que pedi, #1! Muito obrigado. Aqui está sua recompensa.</t>
+  </si>
+  <si>
+    <t>Ah, este é certamente o item que eu pedi. Vou te dar uma recompensa digna de #1.</t>
+  </si>
+  <si>
+    <t>Ho ho ho! Você trouxe medalhas pequenas! Deixe-me ver, deixe-me ver! Gostaria de trocá-las por uma das minhas obras-primas?</t>
+  </si>
+  <si>
+    <t>Humpf!</t>
+  </si>
+  <si>
+    <t>Não faço negócios com criminosos.</t>
+  </si>
+  <si>
+    <t>Está procurando por alguém?</t>
+  </si>
+  <si>
+    <t>(#tg para de falar...)</t>
+  </si>
+  <si>
+    <t>(#tg te abraça.)</t>
+  </si>
+  <si>
+    <t>Você é um pervertido sem salvação.</t>
+  </si>
+  <si>
+    <t>Parece que você finalmente voltou ao normal.</t>
+  </si>
+  <si>
+    <t>(#tg faz um leve aceno com a cabeça.)</t>
+  </si>
+  <si>
+    <t>(#tg recusa gentilmente sua proposta.)</t>
+  </si>
+  <si>
+    <t>Que gentileza a sua em se dar ao trabalho de trazer isso. Você é um verdadeiro exemplo de cidadania!</t>
+  </si>
+  <si>
+    <t>Há um lugar chamado #1 aqui por perto. Se estiver interessado, talvez valha a pena explorar.</t>
+  </si>
+  <si>
+    <t>Infelizmente, não tenho boas notícias no momento.</t>
+  </si>
+  <si>
+    <t>Quer testar sua força?_x000D_
+Está falando sério?_x000D_
+Está querendo arrumar confusão comigo?</t>
+  </si>
+  <si>
+    <t>Muito bem, você tem coragem!_x000D_
+Isso sim é espírito!_x000D_
+Certo, vamos ver do que você é capaz!</t>
+  </si>
+  <si>
+    <t>O quê?</t>
+  </si>
+  <si>
+    <t>Certo, serei sua empregada a partir de hoje.</t>
+  </si>
+  <si>
+    <t>Ha ha, #brother, está assim tão desesperado por dinheiro? Tudo bem, comprarei sua reputação por #1 Orens.</t>
+  </si>
+  <si>
+    <t>Valeu, farei bom uso da sua reputação.</t>
+  </si>
+  <si>
+    <t>Deseja ser abençoado? Muito bem, incline a cabeça!</t>
+  </si>
+  <si>
+    <t>Essa fechadura parece complicada demais pra mim. Desculpe, mas vai ter que lidar com isso sozinho.</t>
+  </si>
+  <si>
+    <t>Claro... Agradeço por me ajudar com o pagamento da dívida. Vamos lidar com essa pequena conta primeiro. Jogue-a no baú de impostos e me avise quando o pagamento estiver concluído.</t>
+  </si>
+  <si>
+    <t>Claro... Me dói te entregar isto, mas aqui está a próxima conta. Venha falar comigo novamente quando terminar o pagamento.</t>
+  </si>
+  <si>
+    <t>Você está com o título da dívida. Ele é importante, por favor, não o perca.</t>
+  </si>
+  <si>
+    <t>Ainda não estou pronto para a próxima conta... Pode esperar mais um pouco?</t>
+  </si>
+  <si>
+    <t>... Lembra quando eu disse "Não o perca"? Aqui está outro, então cuide bem dele desta vez.</t>
+  </si>
+  <si>
+    <t>Humanos e Eleas vivem em paz em Mysilia._x000D_
+A Guerra dos Dez Anos feriu profundamente este país._x000D_
+Não se ouvem muitos bons rumores sobre o herdeiro do Lorde Jonan, o Lorde Efrond._x000D_
+Nosso país foi assolado por uma praga misteriosa após a Guerra dos Dez Anos. Há rumores de que a doença foi espalhada pelo vento milagroso de Nymelle._x000D_
+O que será de Mysilia quando o império recuperar suas forças?</t>
+  </si>
+  <si>
+    <t>Bem-vindo a Olvina, a vila do vinho, das fontes termais e das flores de cerejeira._x000D_
+Fico realmente impressionado com o entusiasmo de Theolucia por aprender._x000D_
+Mal posso esperar por outro concurso da túnica molhada!_x000D_
+Quero ser amaldiçoado pela Farris com toda a fúria dela._x000D_
+Olvina é a melhor vila turística de toda Mysilia.</t>
+  </si>
+  <si>
+    <t>O Lorde Cetrus raramente sorri desde que a Lady Friaune faleceu._x000D_
+Todos agora chamam este forte de Willow, mas ele costumava ter outro nome.</t>
+  </si>
+  <si>
+    <t>Bem-vindo a Derphy, um ninho podre de escória e vilania._x000D_
+Muitos ladrões se reúnem aqui. Eles têm um esconderijo debaixo da taverna, mas não vão simplesmente deixar você entrar._x000D_
+A escravidão é um negócio extremamente lucrativo. Muitos dizem que é maligna, mas até mesmo a poderosa economia de Palmia ruiria se não houvesse escravos para trabalhar nos campos._x000D_
+Nada supera uma luta sangrenta na arena. Se quiser impressionar o público, entregue a eles drama e sangue._x000D_
+Derphy não tem guardas na cidade, então podemos fazer o que quisermos!</t>
+  </si>
+  <si>
+    <t>Palmia é enorme. Eu vivia me perdendo por aqui. Às vezes é bem difícil encontrar outras pessoas._x000D_
+Bem-vindo à capital de Palmia! Nosso reino é antigo e muito próspero._x000D_
+O Príncipe Xabi e a Rainha Stasha formam um casal encantador._x000D_
+Um de nossos produtos especiais são brinquedos que a nobreza costuma comprar._x000D_
+Um amigo me contou sobre uma fortaleza antiga ao norte. Será que é verdade?_x000D_
+Temos muitas festas em Palmia. A nobreza joga dinheiro ao vento por qualquer desculpa para uma celebração regada a bebida.</t>
+  </si>
+  <si>
+    <t>Esta vila se chama Yowyn._x000D_
+Os cavalos vendidos aqui são os melhores de toda a região._x000D_
+Sempre nos faltam mãos durante a época da colheita. Tenho certeza que todos da vila ficariam felizes com sua ajuda._x000D_
+Às vezes vemos foras da lei conhecidos indo para o oeste após saquearem nossas fazendas ou matarem nosso gado. Será que tem algo por lá?_x000D_
+Saia da vila em direção leste e siga a estrada ao norte para chegar à capital do Reino de Palmia._x000D_
+O ancião vive falando de um castelo velho e caindo aos pedaços a sudoeste. Aquele velhote vive inventando histórias malucas._x000D_
+A economia de Yowyn é pequena, mas fazemos caixões de excelente qualidade. Às vezes, os nobres de Palmia mandam seus criados até aqui para comprá-los._x000D_
+O ar aqui no campo é tão puro e cheio de vida. Eu não trocaria isso por nada.</t>
+  </si>
+  <si>
+    <t>Lumiest é uma cidade de grande cultura e arte. Bem-vindo à nossa bela cidade._x000D_
+Ouvi dizer que há uma cidade famosa por suas fontes termais em algum lugar._x000D_
+Aqui em Lumiest, você pode pescar onde quiser._x000D_
+Eu poderia passar horas falando sobre pintura._x000D_
+É aqui que a guilda dos magos mantém suas bibliotecas. É o único lugar em todo o Norte de Tyris com uma guilda para magos._x000D_
+Dizem que algo horrível vive nos esgotos. O cheiro é terrível, então eu nunca desceria lá.</t>
+  </si>
+  <si>
+    <t>Está mais frio que o beiço da morte pendurado num poço. Mas, sabe... bem-vindo a Noyel._x000D_
+A neve nunca vai embora, mas ainda temos que limpá-la pra conseguir andar por aí._x000D_
+Você pode confessar seus pecados na igreja. Não consigo pensar em jeito melhor de ser perdoado pelos seus crimes._x000D_
+Estou congelando. Não consigo sentir meus dedos._x000D_
+Um tempo atrás vi uma casinha ao sul de Noyel. Parecia algum tipo de oficina.</t>
+  </si>
+  <si>
+    <t>Ah, não há nada como o cheiro salgado da brisa do mar._x000D_
+Adoro assistir às lutas brutais na arena de mascotes. Mas é bom tomar cuidado — às vezes o público leva bala perdida ou é atingido por dragões descuidados._x000D_
+Se quiser o melhor treinamento que um guerreiro pode ter, vá conhecer a guilda dos lutadores._x000D_
+O preço da carga de frutos do mar sobe muito mais para o interior._x000D_
+Fico curioso sobre como entrar naquela Pirâmide ao norte da cidade._x000D_
+Ouvi dizer que muita gente sinistra e estranha vai para Derphy.</t>
+  </si>
+  <si>
+    <t>Queria que meu príncipe tivesse um pouco mais de moderação como herdeiro de Palmia._x000D_
+São pessoas como Gilbert que fazem meu príncipe parecer mal._x000D_
+Como é cortês e decidida a Princesa Stasha para a sua idade! Ela é verdadeiramente um ídolo da corte real!_x000D_
+Vida longa à Princesa Stasha!</t>
+  </si>
+  <si>
+    <t>Meu parceiro Miral e eu nos conhecemos desde que éramos crianças que mal sabiam segurar um martelo._x000D_
+Sempre admirei o talento do Miral. E, mesmo assim, lá está ele, fazendo brinquedos de gato enquanto negligencia os pedidos dos clientes._x000D_
+Tédio. Preciso de uma grande encomenda para incendiar meu coração de artesão!</t>
+  </si>
+  <si>
+    <t>Muwahahaha! ...O que é você?_x000D_
+Pelo Opatos, vou esmagar cada inseto maligno que chegar perto da Princesa Stasha! Muwahaha!_x000D_
+Vida longa à Princesa Stasha!_x000D_
+Queria ter lutado na guerra há 15 anos!_x000D_
+Muwaha!_x000D_
+Ajudar os indefesos, esmagar a vilania!</t>
+  </si>
+  <si>
+    <t>Que negócios você tem na corte de Mysilia?_x000D_
+Sou velho, mas ainda não posso me esconder.</t>
+  </si>
+  <si>
+    <t>O que um aventureiro está fazendo aqui, hein?_x000D_
+O asilo abriga e educa crianças sem pais._x000D_
+Mesmo nesses tempos, espero que nossas crianças cresçam saudáveis e felizes._x000D_
+Educação é importante. Essas crianças, que não têm nada atrás de si, eventualmente terão que encontrar um lugar onde trabalhar.</t>
+  </si>
+  <si>
+    <t>Meu nome é Slan, servo de Palmia. Estou passando meu tempo viajando pelo mundo para aprimorar minhas habilidades._x000D_
+Estes são, de fato, livros valiosos._x000D_
+Cheguei a este castelo isolado num dia de neve e tenho ficado aqui há um tempo.</t>
+  </si>
+  <si>
+    <t>Oh, um visitante! Não hesite em brincar com meus gatos._x000D_
+Meu parceiro e eu costumávamos discutir sobre o nome da oficina. Se ele tivesse algum senso para nomes, não teria sugerido algo tão ridículo como "Garokk Miral"._x000D_
+O que vamos preparar para a refeição de hoje? Ultimamente, tenho me divertido mais pensando no cardápio dos gatos do que forjando ferro.</t>
+  </si>
+  <si>
+    <t>A vida de mercador é tranquila e despreocupada, mas não seria ruim me estabelecer numa cidade confortável em algum lugar. Sim, em Kapoor ou por aí._x000D_
+É raro ver um mercador homem-besta? Talvez você não veja muitos de nós em Tyris._x000D_
+Nos orgulhamos dos muitos itens que reunimos de Verizzia, a terra dos oceanos a oeste, até Nieca, a terra dourada do deserto a leste. Sinta-se à vontade para olhar._x000D_
+Não... isto não é uma fantasia.</t>
+  </si>
+  <si>
+    <t>Sou Nola, prefeita interina. Como posso ajudá-lo?</t>
+  </si>
+  <si>
+    <t>Oh, como posso ajudar?_x000D_
+Palmia é um reino com grande história em Tyris. Estou honrada por ter sido recebida neste palácio real._x000D_
+Ídolo...? ...É uma língua estrangeira?_x000D_
+Os fãs... ah... a... as pessoas do Palácio Real têm sido muito gentis comigo.</t>
+  </si>
+  <si>
+    <t>Tenho interesse por história e folclore._x000D_
+Minha irmã Farris é muito assustadora quando fica brava._x000D_
+A Biblioteca Real de Palmia é um lugar maravilhoso com uma coleção enorme de livros.</t>
+  </si>
+  <si>
+    <t>Você é um aventureiro? Adoraria ouvir suas histórias._x000D_
+Meu pai é muito rígido. Odeio quando ele implica com tudo. Espero que Conery não seja mal influenciado por ele._x000D_
+Gilbert e Conery são meus amigos desde a infância.</t>
+  </si>
+  <si>
+    <t>O que é você?_x000D_
+Este não é lugar para aventureiros. Deve partir agora._x000D_
+…</t>
+  </si>
+  <si>
+    <t>Quem é você? Vá embora._x000D_
+Ah, que dia adorável e pacífico em Mysilia. Todas as pessoas aqui devem ter fechado os olhos ou os deixado em algum lugar._x000D_
+São todos um bando de tolos, alinhando seus rostos tolos.</t>
+  </si>
+  <si>
+    <t>Por favor, fique longe... Lorde Efrond ficará bravo comigo._x000D_
+A Floresta de Vindale... nunca a visitei. Todos os elea que vivem em Mysilia são "forasteiros"._x000D_
+Olhar para as flores assim me dá sono...</t>
+  </si>
+  <si>
+    <t>Você ouvirá minha canção?_x000D_
+Servi na corte real de Zanan há muito tempo, mas, bem, cometi um erro._x000D_
+Mysilia é verdadeiramente meu lar agora._x000D_
+Você viu Melvin? Estou com vontade de cantar um pouco._x000D_
+Minha esposa é a mulher mais bela e brilhante de toda Mysilia. Ela é quase boa demais pra mim.</t>
+  </si>
+  <si>
+    <t>Já se passaram oito anos desde que minha irmã se casou com Barrich. O tempo voa._x000D_
+Minha família carrega o título de Protetores da Floresta há gerações. Neste tempo difícil para os Elea, gostaria de provar que este título não é só um nome. Claro, seria melhor se tal oportunidade nunca surgisse._x000D_
+Meu parceiro, Griffin, é uma coruja selvagem. Cuidei dele quando estava ferido e ele se apegou a mim. Agora acha que meu ombro é a casa dele._x000D_
+A falta de moderação das damas é preocupante._x000D_
+Eluminaire, a moça que acompanha o Lorde Efrond, será que ela é... não, estou pensando demais.</t>
+  </si>
+  <si>
+    <t>O que é você?_x000D_
+Aventureiro pode parecer algo legal, mas no fundo, não passa de um vagante sem vontade de trabalhar honestamente._x000D_
+Obviamente o império é uma ameaça. Mas Zanan, que esconde bem suas verdadeiras intenções, também me dá arrepios._x000D_
+O Rei Zane de Palmia é um monarca renomado, mas ouvi dizer que seu filho, o Príncipe Xabi, é um mimado. Parece que todo país tem o mesmo problema com seus herdeiros!</t>
+  </si>
+  <si>
+    <t>Qual é mais assustador, irmãs mais novas ou cubos? Pessoalmente, acho irmãs mais novas mais adoráveis.</t>
+  </si>
+  <si>
+    <t>Ah, um corvo. Busca algo?_x000D_
+Gostaria de um pouco de chá, corvo?_x000D_
+Eu sou o "Buscador"... ou pode me chamar de "Errante dos Reinos". Dediquei minha vida a adquirir todo o conhecimento deste mundo. Como pode ver, sou um recluso._x000D_
+É realmente notável que tenha encontrado um lugar tão remoto._x000D_
+...Este castelo é minha grande biblioteca, mas, fundamentalmente, uma biblioteca deve ser um lugar aberto a todos._x000D_
+Todo o conhecimento deste mundo deve ser acessível a todos. Sinta-se em casa.</t>
+  </si>
+  <si>
+    <t>Consegue ouvir as palavras antigas que o vento sussurra? Eu vago pelo mundo para aprender a história do vento.</t>
+  </si>
+  <si>
+    <t>Não gosto daqueles Pequenos. Falam coisas estranhas e é muito esquisito!_x000D_
+Não me coloque no mesmo saco que aqueles monstros._x000D_
+Quando o papai voltar, vou pedir pra nunca mais virmos aqui._x000D_
+Papai é um "cien-tista." Ele veio até este orfanato e então... aquela mulher monstro pediu algo pra ele, e ele disse que já voltava..._x000D_
+Papai vai voltar logo._x000D_
+Mesmo se me pedirem, não vou brincar com os Pequenos._x000D_
+Às vezes eles pegam e trazem coisas estranhas._x000D_
+Aquela mulher monstro não é minha mamãe. Isso é óbvio!</t>
+  </si>
+  <si>
+    <t>Veio girar a roda dos prêmios, hein?</t>
   </si>
 </sst>
 </file>
@@ -2012,8 +2423,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>909645</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -2177,16 +2588,16 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="145.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.5703125" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
   </cols>
@@ -2212,6 +2623,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -2223,6 +2637,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -2234,6 +2651,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -2245,6 +2665,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -2256,6 +2679,9 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" t="s">
+        <v>398</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -2267,6 +2693,9 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -2278,6 +2707,9 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -2289,6 +2721,9 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
+      <c r="B12" t="s">
+        <v>401</v>
+      </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -2300,6 +2735,9 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -2311,6 +2749,9 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
+      <c r="B14" t="s">
+        <v>403</v>
+      </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -2322,7 +2763,9 @@
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2334,6 +2777,9 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -2345,6 +2791,9 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
+      <c r="B17" t="s">
+        <v>406</v>
+      </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -2356,6 +2805,9 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
+      <c r="B18" t="s">
+        <v>407</v>
+      </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -2367,6 +2819,9 @@
       <c r="A19" t="s">
         <v>46</v>
       </c>
+      <c r="B19" t="s">
+        <v>408</v>
+      </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
@@ -2378,6 +2833,9 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
+      <c r="B20" t="s">
+        <v>409</v>
+      </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -2389,6 +2847,9 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -2400,6 +2861,9 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
+      <c r="B22" t="s">
+        <v>411</v>
+      </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
@@ -2411,6 +2875,9 @@
       <c r="A23" t="s">
         <v>58</v>
       </c>
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
       <c r="C23" t="s">
         <v>59</v>
       </c>
@@ -2422,6 +2889,9 @@
       <c r="A24" t="s">
         <v>61</v>
       </c>
+      <c r="B24" t="s">
+        <v>413</v>
+      </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
@@ -2433,6 +2903,9 @@
       <c r="A25" t="s">
         <v>64</v>
       </c>
+      <c r="B25" t="s">
+        <v>414</v>
+      </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
@@ -2444,6 +2917,9 @@
       <c r="A26" t="s">
         <v>67</v>
       </c>
+      <c r="B26" t="s">
+        <v>415</v>
+      </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
@@ -2455,6 +2931,9 @@
       <c r="A27" t="s">
         <v>70</v>
       </c>
+      <c r="B27" t="s">
+        <v>416</v>
+      </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
@@ -2466,6 +2945,9 @@
       <c r="A28" t="s">
         <v>73</v>
       </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
@@ -2477,6 +2959,9 @@
       <c r="A29" t="s">
         <v>76</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2488,6 +2973,9 @@
       <c r="A30" t="s">
         <v>79</v>
       </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
       <c r="C30" t="s">
         <v>80</v>
       </c>
@@ -2499,6 +2987,9 @@
       <c r="A31" t="s">
         <v>82</v>
       </c>
+      <c r="B31" t="s">
+        <v>420</v>
+      </c>
       <c r="C31" t="s">
         <v>83</v>
       </c>
@@ -2510,6 +3001,9 @@
       <c r="A32" t="s">
         <v>85</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
@@ -2521,6 +3015,9 @@
       <c r="A33" t="s">
         <v>86</v>
       </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
       <c r="C33" t="s">
         <v>80</v>
       </c>
@@ -2532,6 +3029,9 @@
       <c r="A34" t="s">
         <v>87</v>
       </c>
+      <c r="B34" t="s">
+        <v>421</v>
+      </c>
       <c r="C34" t="s">
         <v>88</v>
       </c>
@@ -2543,6 +3043,9 @@
       <c r="A35" t="s">
         <v>90</v>
       </c>
+      <c r="B35" t="s">
+        <v>422</v>
+      </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
@@ -2554,6 +3057,9 @@
       <c r="A36" t="s">
         <v>93</v>
       </c>
+      <c r="B36" t="s">
+        <v>423</v>
+      </c>
       <c r="C36" t="s">
         <v>94</v>
       </c>
@@ -2565,6 +3071,9 @@
       <c r="A37" t="s">
         <v>96</v>
       </c>
+      <c r="B37" t="s">
+        <v>424</v>
+      </c>
       <c r="C37" t="s">
         <v>97</v>
       </c>
@@ -2576,6 +3085,9 @@
       <c r="A38" t="s">
         <v>99</v>
       </c>
+      <c r="B38" t="s">
+        <v>425</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>100</v>
       </c>
@@ -2587,6 +3099,9 @@
       <c r="A39" t="s">
         <v>102</v>
       </c>
+      <c r="B39" t="s">
+        <v>426</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
@@ -2598,6 +3113,9 @@
       <c r="A40" t="s">
         <v>105</v>
       </c>
+      <c r="B40" t="s">
+        <v>427</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
@@ -2609,6 +3127,9 @@
       <c r="A41" t="s">
         <v>108</v>
       </c>
+      <c r="B41" t="s">
+        <v>428</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
@@ -2620,6 +3141,9 @@
       <c r="A42" t="s">
         <v>111</v>
       </c>
+      <c r="B42" t="s">
+        <v>429</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2631,6 +3155,9 @@
       <c r="A43" t="s">
         <v>114</v>
       </c>
+      <c r="B43" t="s">
+        <v>430</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>115</v>
       </c>
@@ -2642,6 +3169,9 @@
       <c r="A44" t="s">
         <v>117</v>
       </c>
+      <c r="B44" t="s">
+        <v>431</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2653,6 +3183,9 @@
       <c r="A45" t="s">
         <v>120</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
@@ -2664,6 +3197,9 @@
       <c r="A46" t="s">
         <v>123</v>
       </c>
+      <c r="B46" t="s">
+        <v>433</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>124</v>
       </c>
@@ -2675,6 +3211,9 @@
       <c r="A47" t="s">
         <v>126</v>
       </c>
+      <c r="B47" t="s">
+        <v>434</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>127</v>
       </c>
@@ -2686,6 +3225,9 @@
       <c r="A48" t="s">
         <v>129</v>
       </c>
+      <c r="B48" t="s">
+        <v>435</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>130</v>
       </c>
@@ -2697,6 +3239,9 @@
       <c r="A49" t="s">
         <v>132</v>
       </c>
+      <c r="B49" t="s">
+        <v>436</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>133</v>
       </c>
@@ -2708,6 +3253,9 @@
       <c r="A50" t="s">
         <v>135</v>
       </c>
+      <c r="B50" t="s">
+        <v>437</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>136</v>
       </c>
@@ -2719,6 +3267,9 @@
       <c r="A51" t="s">
         <v>138</v>
       </c>
+      <c r="B51" t="s">
+        <v>438</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>139</v>
       </c>
@@ -2730,6 +3281,9 @@
       <c r="A52" t="s">
         <v>141</v>
       </c>
+      <c r="B52" t="s">
+        <v>439</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>142</v>
       </c>
@@ -2741,6 +3295,9 @@
       <c r="A53" t="s">
         <v>144</v>
       </c>
+      <c r="B53" t="s">
+        <v>440</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>145</v>
       </c>
@@ -2752,6 +3309,9 @@
       <c r="A54" t="s">
         <v>147</v>
       </c>
+      <c r="B54" t="s">
+        <v>441</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>148</v>
       </c>
@@ -2763,6 +3323,9 @@
       <c r="A55" t="s">
         <v>150</v>
       </c>
+      <c r="B55" t="s">
+        <v>442</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>151</v>
       </c>
@@ -2774,6 +3337,9 @@
       <c r="A56" t="s">
         <v>153</v>
       </c>
+      <c r="B56" t="s">
+        <v>443</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
@@ -2785,6 +3351,9 @@
       <c r="A57" t="s">
         <v>156</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>157</v>
       </c>
@@ -2796,6 +3365,9 @@
       <c r="A58" t="s">
         <v>159</v>
       </c>
+      <c r="B58" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2807,6 +3379,9 @@
       <c r="A59" t="s">
         <v>162</v>
       </c>
+      <c r="B59" t="s">
+        <v>446</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>163</v>
       </c>
@@ -2818,6 +3393,9 @@
       <c r="A60" t="s">
         <v>165</v>
       </c>
+      <c r="B60" t="s">
+        <v>447</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>166</v>
       </c>
@@ -2829,6 +3407,9 @@
       <c r="A61" t="s">
         <v>168</v>
       </c>
+      <c r="B61" t="s">
+        <v>448</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>169</v>
       </c>
@@ -2840,6 +3421,9 @@
       <c r="A62" t="s">
         <v>171</v>
       </c>
+      <c r="B62" t="s">
+        <v>449</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>172</v>
       </c>
@@ -2851,6 +3435,9 @@
       <c r="A63" t="s">
         <v>174</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>175</v>
       </c>
@@ -2862,6 +3449,9 @@
       <c r="A64" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>178</v>
       </c>
@@ -2873,6 +3463,9 @@
       <c r="A65" t="s">
         <v>180</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>181</v>
       </c>
@@ -2884,6 +3477,9 @@
       <c r="A66" t="s">
         <v>183</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>184</v>
       </c>
@@ -2895,6 +3491,9 @@
       <c r="A67" t="s">
         <v>186</v>
       </c>
+      <c r="B67" t="s">
+        <v>454</v>
+      </c>
       <c r="C67" t="s">
         <v>187</v>
       </c>
@@ -2906,6 +3505,9 @@
       <c r="A68" t="s">
         <v>189</v>
       </c>
+      <c r="B68" t="s">
+        <v>455</v>
+      </c>
       <c r="C68" t="s">
         <v>190</v>
       </c>
@@ -2917,6 +3519,9 @@
       <c r="A69" t="s">
         <v>192</v>
       </c>
+      <c r="B69" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>193</v>
       </c>
@@ -2928,6 +3533,9 @@
       <c r="A70" t="s">
         <v>195</v>
       </c>
+      <c r="B70" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="C70" s="2" t="s">
         <v>196</v>
       </c>
@@ -2939,6 +3547,9 @@
       <c r="A71" t="s">
         <v>198</v>
       </c>
+      <c r="B71" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="C71" t="s">
         <v>199</v>
       </c>
@@ -2950,6 +3561,9 @@
       <c r="A72" t="s">
         <v>201</v>
       </c>
+      <c r="B72" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="C72" t="s">
         <v>202</v>
       </c>
@@ -2961,6 +3575,9 @@
       <c r="A73" t="s">
         <v>204</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>205</v>
       </c>
@@ -2972,6 +3589,9 @@
       <c r="A74" t="s">
         <v>207</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>208</v>
       </c>
@@ -2983,6 +3603,9 @@
       <c r="A75" t="s">
         <v>210</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="C75" t="s">
         <v>211</v>
       </c>
@@ -2994,6 +3617,9 @@
       <c r="A76" t="s">
         <v>213</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="C76" t="s">
         <v>214</v>
       </c>
@@ -3004,6 +3630,9 @@
     <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>216</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C77" t="s">
         <v>217</v>
@@ -3023,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
@@ -3075,7 +3704,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="82.5">
+    <row r="6" spans="1:4" ht="66">
       <c r="A6" s="4" t="s">
         <v>222</v>
       </c>
@@ -3089,7 +3718,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="82.5">
+    <row r="7" spans="1:4" ht="66">
       <c r="A7" s="4" t="s">
         <v>225</v>
       </c>
@@ -3117,7 +3746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="115.5">
+    <row r="9" spans="1:4" ht="82.5">
       <c r="A9" s="4" t="s">
         <v>231</v>
       </c>
@@ -3131,7 +3760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="181.5">
+    <row r="10" spans="1:4" ht="132">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -3145,7 +3774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.5">
+    <row r="11" spans="1:4" ht="66">
       <c r="A11" s="4" t="s">
         <v>237</v>
       </c>
@@ -3159,7 +3788,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="115.5">
+    <row r="12" spans="1:4" ht="82.5">
       <c r="A12" s="4" t="s">
         <v>240</v>
       </c>
@@ -3173,7 +3802,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="181.5">
+    <row r="13" spans="1:4" ht="148.5">
       <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
@@ -3271,7 +3900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.5">
+    <row r="20" spans="1:4" ht="346.5">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3343,16 +3972,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="109.140625" customWidth="1"/>
     <col min="4" max="4" width="123" customWidth="1"/>
   </cols>
@@ -3375,6 +4004,9 @@
       <c r="A5" t="s">
         <v>276</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>277</v>
       </c>
@@ -3386,6 +4018,9 @@
       <c r="A6" t="s">
         <v>279</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>280</v>
       </c>
@@ -3397,6 +4032,9 @@
       <c r="A7" t="s">
         <v>282</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>283</v>
       </c>
@@ -3408,6 +4046,9 @@
       <c r="A8" t="s">
         <v>285</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>286</v>
       </c>
@@ -3419,6 +4060,9 @@
       <c r="A9" t="s">
         <v>288</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
       </c>
@@ -3430,6 +4074,9 @@
       <c r="A10" t="s">
         <v>291</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>292</v>
       </c>
@@ -3441,6 +4088,9 @@
       <c r="A11" t="s">
         <v>294</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>295</v>
       </c>
@@ -3452,6 +4102,9 @@
       <c r="A12" t="s">
         <v>297</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>298</v>
       </c>
@@ -3462,6 +4115,9 @@
     <row r="13" spans="1:4" ht="115.5">
       <c r="A13" t="s">
         <v>300</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>301</v>
@@ -3480,17 +4136,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="111" customWidth="1"/>
     <col min="4" max="4" width="87.140625" customWidth="1"/>
   </cols>
@@ -3522,6 +4178,9 @@
       <c r="A5" t="s">
         <v>303</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>304</v>
       </c>
@@ -3533,6 +4192,9 @@
       <c r="A6" t="s">
         <v>306</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>307</v>
       </c>
@@ -3544,6 +4206,9 @@
       <c r="A7" t="s">
         <v>309</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>476</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>310</v>
       </c>
@@ -3555,6 +4220,9 @@
       <c r="A8" t="s">
         <v>312</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>313</v>
       </c>
@@ -3566,6 +4234,9 @@
       <c r="A9" t="s">
         <v>315</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>316</v>
       </c>
@@ -3577,6 +4248,9 @@
       <c r="A10" t="s">
         <v>318</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>319</v>
       </c>
@@ -3588,6 +4262,9 @@
       <c r="A11" t="s">
         <v>321</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>322</v>
       </c>
@@ -3599,7 +4276,9 @@
       <c r="A12" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>325</v>
       </c>
@@ -3611,6 +4290,9 @@
       <c r="A13" t="s">
         <v>327</v>
       </c>
+      <c r="B13" t="s">
+        <v>482</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>328</v>
       </c>
@@ -3622,6 +4304,9 @@
       <c r="A14" t="s">
         <v>330</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>331</v>
       </c>
@@ -3633,6 +4318,9 @@
       <c r="A15" t="s">
         <v>333</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>334</v>
       </c>
@@ -3644,6 +4332,9 @@
       <c r="A16" t="s">
         <v>336</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>337</v>
       </c>
@@ -3655,6 +4346,9 @@
       <c r="A17" t="s">
         <v>339</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>340</v>
       </c>
@@ -3666,6 +4360,9 @@
       <c r="A18" t="s">
         <v>342</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>343</v>
       </c>
@@ -3677,6 +4374,9 @@
       <c r="A19" t="s">
         <v>345</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>346</v>
       </c>
@@ -3688,6 +4388,9 @@
       <c r="A20" t="s">
         <v>348</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>349</v>
       </c>
@@ -3699,6 +4402,9 @@
       <c r="A21" t="s">
         <v>351</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>352</v>
       </c>
@@ -3710,6 +4416,9 @@
       <c r="A22" t="s">
         <v>354</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>355</v>
       </c>
@@ -3721,6 +4430,9 @@
       <c r="A23" t="s">
         <v>357</v>
       </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>358</v>
       </c>
@@ -3732,6 +4444,9 @@
       <c r="A24" t="s">
         <v>360</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>361</v>
       </c>
@@ -3743,6 +4458,9 @@
       <c r="A25" s="8" t="s">
         <v>363</v>
       </c>
+      <c r="B25" t="s">
+        <v>454</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>364</v>
       </c>
@@ -3754,6 +4472,9 @@
       <c r="A26" s="8" t="s">
         <v>365</v>
       </c>
+      <c r="B26" t="s">
+        <v>494</v>
+      </c>
       <c r="C26" s="9" t="s">
         <v>366</v>
       </c>
@@ -3765,6 +4486,9 @@
       <c r="A27" s="8" t="s">
         <v>368</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="C27" s="10" t="s">
         <v>369</v>
       </c>
@@ -3775,6 +4499,9 @@
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>371</v>
+      </c>
+      <c r="B28" t="s">
+        <v>496</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>372</v>

--- a/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SteamLibrary\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF116AF-5AF4-4019-B306-AD9D16E9DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AC045-41F0-43AB-9BC1-C20FE8309213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="870" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="557">
   <si>
     <t>id</t>
   </si>
@@ -2748,6 +2748,54 @@
 Ouvi dizer que existem outras irmãs neste mundo que não são de sangue, #brother2!
 Quero me enroscar com a snow putit-chan! Quero muito, #brother2!
 Existem snow putit-chans de cores diferentes, #brother2. Seria tão bom se pudéssemos acolher todas elas, #brother2.</t>
+  </si>
+  <si>
+    <t>shop_blackmarket_noaccess</t>
+  </si>
+  <si>
+    <t>{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
+  </si>
+  <si>
+    <t>Heh, what business does a straight-laced adventurer like you have with me?</t>
+  </si>
+  <si>
+    <t>Heh, que negócio um aventureiro tão certinho como você tem comigo?</t>
+  </si>
+  <si>
+    <t>fairy_nanasu</t>
+  </si>
+  <si>
+    <t>ボクはナナス、ナスの妖精だよ～
+好きな物はなにかって？もちろんナスだよ～
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
+  </si>
+  <si>
+    <t>I am Nanas, the eggplant fairy!
+What's my favorite food? Eggplant, of course!
+Specwing is a very nice place, everyone is dancing happily.
+The most gratifying part of an adventure is the bond that you get from adventuring together!
+I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
+Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
+Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
+The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
+when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t>Eu sou Nanas, a fada berinjela!
+Qual é minha comida favorita? Berinjela, é claro!
+Specwing é um lugar muito agradável, todo mundo está dançando feliz.
+A parte mais gratificante de uma aventura é o vínculo que se cria por aventurar-se juntos!
+Bebi muito com novos amigos que conheci durante minhas aventuras, foi muito divertido.
+Claro, houve momentos tristes, mas eu segui em frente acreditando que encontraria novas pessoas, e é por isso que estou aqui hoje.
+Os encontros chegarão ao fim em algum momento, mas acredito que o que ganhei com eles não será em vão.
+A fada berinjela azul que dizem ter criado Specwing, eu gostaria de superá-la algum dia.
+Quando eu ainda era muito jovem, treinei lutas com uma fada berinjela azul. Ela era uma fada, mas muito resistente.</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2982,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>909645</xdr:colOff>
+      <xdr:colOff>414345</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -3095,18 +3143,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.5703125" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
@@ -3831,323 +3879,337 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>549</v>
       </c>
       <c r="B55" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
+        <v>550</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>444</v>
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>443</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>445</v>
+        <v>156</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>446</v>
+        <v>159</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>449</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="49.5">
-      <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="49.5">
       <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="49.5">
+      <c r="A67" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
+        <v>457</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="33">
-      <c r="A73" t="s">
+    <row r="74" spans="1:4" ht="33">
+      <c r="A74" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
+        <v>461</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4162,7 +4224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
@@ -4482,7 +4544,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
@@ -4702,11 +4764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -4740,7 +4802,7 @@
     <row r="4" spans="1:4">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="99">
+    <row r="5" spans="1:4" ht="82.5">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -4754,7 +4816,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="99">
+    <row r="6" spans="1:4" ht="82.5">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -4768,7 +4830,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="115.5">
+    <row r="7" spans="1:4" ht="99">
       <c r="A7" t="s">
         <v>309</v>
       </c>
@@ -4796,7 +4858,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="99">
+    <row r="9" spans="1:4" ht="82.5">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -4810,7 +4872,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="82.5">
+    <row r="10" spans="1:4" ht="66">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -4824,7 +4886,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99">
+    <row r="11" spans="1:4" ht="82.5">
       <c r="A11" t="s">
         <v>321</v>
       </c>
@@ -4838,7 +4900,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="148.5">
+    <row r="12" spans="1:4" ht="99">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -4880,7 +4942,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66">
+    <row r="15" spans="1:4" ht="49.5">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -4936,7 +4998,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="66">
+    <row r="19" spans="1:4" ht="49.5">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -4950,7 +5012,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="99">
+    <row r="20" spans="1:4" ht="87">
       <c r="A20" t="s">
         <v>348</v>
       </c>
@@ -4964,7 +5026,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="165">
+    <row r="21" spans="1:4" ht="115.5">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -4978,7 +5040,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="132">
+    <row r="22" spans="1:4" ht="115.5">
       <c r="A22" t="s">
         <v>354</v>
       </c>
@@ -5006,7 +5068,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="165">
+    <row r="24" spans="1:4" ht="132">
       <c r="A24" t="s">
         <v>360</v>
       </c>
@@ -5048,7 +5110,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="165">
+    <row r="27" spans="1:4" ht="148.5">
       <c r="A27" s="8" t="s">
         <v>368</v>
       </c>
@@ -5076,7 +5138,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="297">
+    <row r="29" spans="1:4" ht="247.5">
       <c r="A29" s="2" t="s">
         <v>513</v>
       </c>
@@ -5090,7 +5152,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="313.5">
+    <row r="30" spans="1:4" ht="247.5">
       <c r="A30" s="2" t="s">
         <v>516</v>
       </c>
@@ -5104,7 +5166,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="297">
+    <row r="31" spans="1:4" ht="247.5">
       <c r="A31" s="2" t="s">
         <v>519</v>
       </c>
@@ -5202,8 +5264,19 @@
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:4" ht="214.5">
+      <c r="A38" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="2"/>

--- a/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AC045-41F0-43AB-9BC1-C20FE8309213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F12C1F4-BEDD-41AF-9131-9A4EC558A178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="870" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="rumor" sheetId="2" r:id="rId2"/>
     <sheet name="zone" sheetId="3" r:id="rId3"/>
     <sheet name="unique" sheetId="4" r:id="rId4"/>
+    <sheet name="asmr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="643">
   <si>
     <t>id</t>
   </si>
@@ -2796,6 +2797,932 @@
 Os encontros chegarão ao fim em algum momento, mas acredito que o que ganhei com eles não será em vão.
 A fada berinjela azul que dizem ter criado Specwing, eu gostaria de superá-la algum dia.
 Quando eu ainda era muito jovem, treinei lutas com uma fada berinjela azul. Ela era uma fada, mas muito resistente.</t>
+  </si>
+  <si>
+    <t>blooming1</t>
+  </si>
+  <si>
+    <t>ほう、ぬしの仲間はよく熟れておるな？ 長い旅で育まれた絆が、今まさに花開こうとしておるぞ。わっちが手助けしてやらぬこともないが…</t>
+  </si>
+  <si>
+    <t>Hmph, your companion seems well ripened indeed. The bond you’ve nurtured through your travels is ready to blossom. Perhaps I shall help it along...</t>
+  </si>
+  <si>
+    <t>blooming2</t>
+  </si>
+  <si>
+    <t>フホホホホホホ、咲けぃ！</t>
+  </si>
+  <si>
+    <t>Muwohohohohohoho, BLOOM!</t>
+  </si>
+  <si>
+    <t>blooming3</t>
+  </si>
+  <si>
+    <t>フホホ、 ぬしの誠意次第じゃな。 わっちを喜ばせてみせるがよい。</t>
+  </si>
+  <si>
+    <t>Muwohoho. Your sincerity shall decide my favor. Delight me, if you dare.</t>
+  </si>
+  <si>
+    <t>inviteReq1</t>
+  </si>
+  <si>
+    <t>#1を持ってきて{くれ}。</t>
+  </si>
+  <si>
+    <t>Can you give me #1?</t>
+  </si>
+  <si>
+    <t>Hmph, seu companheiro parece bem amadurecido de fato. O laço que você cultivou através de suas viagens está pronto para florescer. Talvez eu deva ajudar nisso...</t>
+  </si>
+  <si>
+    <t>Muwohohohohohoho, FLORESÇA!</t>
+  </si>
+  <si>
+    <t>Muwohoho. Sua sinceridade decidirá meu favor. Me encante, se você ousar.</t>
+  </si>
+  <si>
+    <t>namamani</t>
+  </si>
+  <si>
+    <t>なんだこの場所は？
+神々なんて、ただ人間より少し強くて傲慢なだけじゃないか。
+人間の行動は、常に感情の誤作動に導かれる。
+機械が壊れるのは設計の責任だろう？
+機械はやがて人間の代わりに地上を支配するだろう。
+自分が作ったモノは全て覚えている。例外などない。
+…神などという不合理な存在を認めるものか。
+なぜ、ここには私が二人いる？
+退屈な場所だ。ただ一点、私が二人いることをのぞけばな…
+…ああ、この腕か？ もちろん自分で取り替えたぞ。
+私が神々の座を狙っている…？ ふん、面白い冗談だ。お前の頭を分解してみたいよ。
+…やけに猫が多いな。</t>
+  </si>
+  <si>
+    <t>What is this place?
+Gods? They're just a little stronger and more arrogant than humans.
+Human behavior is always guided by the malfunction of emotion.
+When a machine breaks down, it’s the fault of its design, isn’t it?
+One day, machines will rule the earth in place of humankind.
+I remember everything I’ve created—without exception. 
+I refuse to acknowledge something as irrational as a god.
+Why are there two of me here?
+What a dull place. Except, of course, for the fact that there are two of me.
+...This arm? Of course I replaced it myself.
+You think I’m after the gods’ throne? Heh, what a funny thought. I’d much rather take your head apart and see how it works.
+...Why are there so many cats here?</t>
+  </si>
+  <si>
+    <t>namamani2</t>
+  </si>
+  <si>
+    <t>おかしい、何も思い出せない。</t>
+  </si>
+  <si>
+    <t>Strange... I can't remember anything.</t>
+  </si>
+  <si>
+    <t>keeper_garden</t>
+  </si>
+  <si>
+    <t>タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
+なんじゃ、ぬしもわっちに可愛がられたい口か？ 
+時はここでは何の意味も持たぬ。
+ほう、旅人か？ 迷子か？ それとも、 ここがどこかも知らずに歩いてきた愚か者か？
+フホホホ、わっちに挨拶とは律儀なやつじゃ。
+猫は、この世でいちばん尊いのう。
+やがて客はこの庭を忘れ、元いた場所へ、元いた時へと還っていくのじゃ。 
+この庭では、すべての魂が平穏を知るのじゃ。
+庭に招かれた者は皆、永遠の安らぎの欠片を胸に抱き、去っていく。
+フホホ、ぬしにも見えるか？ 水面を漂う花びらのように、時の触れぬ静寂に浮かぶ無数の魂が。
+その静寂の中で眠ったすべての魂を、庭は今も覚えておる。 
+いつか、幸運の女神を思う存分モフりたいものじゃ。</t>
+  </si>
+  <si>
+    <t>Tanelorn? Ah, I’ve heard someone call this place by that name before.
+What is it? Do you wish to be doted on by me as well?
+Time holds no meaning here.
+Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
+Muwohoho... how courteous of you to greet me, mortal.
+Cats truly are the greatest, aren’t they?
+In the end, every guest leaves—forgetting this garden, and returning to where, and when, they once belonged.
+Here in this garden, all souls come to know peace.
+All who wander here leave with a fragment of its eternal calm.
+Here, hearts drift like petals upon still water, untouched by time.
+This garden remembers every soul that has ever found rest within its silence.
+Someday, I shall fluff the Goddess of Fortune to my heart’s content.</t>
+  </si>
+  <si>
+    <t>erishe</t>
+  </si>
+  <si>
+    <t>ふふ、兄さん、どこにいったの？
+こんにちは、旅の人。ゆっくりしていってください。
+とても平和な場所です。ここにいると、まるで時間を忘れてしまうようで…
+お芝居を見に行く途中で、兄さんとはぐれてしまって。何が起こったのでしょう？
+兄さんも私も、お芝居にはあまり興味はないんです。でも、ザナンでは貴族のたしなみですから。
+知っていましたか…？ アルティハイトには妖精がいるんですよ？
+ああ見えても、兄さんは私がいないとだらしないんですよ、ふふ。
+ロイターさんは、演奏会場で石を投げて、出入り禁止になったことがあるようですね。
+差し入れを持っていくと、ロイターさんったら、いまだに少年みたいに照れるんですよ。
+ロイテル…？ いえ、ロイターさんなら知ってますけど…</t>
+  </si>
+  <si>
+    <t>Hehe, brother, where did you go?
+Hello, traveler. Please, take your time and rest here.
+This is such a peaceful place. Being here almost makes you forget about time itself...
+I got separated from my brother on the way to the play. I wonder what happened?
+Neither of us is really interested in theater, but in Zanan, it’s considered part of a noble’s education.
+Did you know? …There are fairies in Altheheit, you know.
+Even though he doesn’t look it, my brother is hopeless without me, hehe.
+Loyter once threw a stone at a concert hall and got himself banned from entering.
+Whenever I bring Loyter a little gift, he still blushes like a boy.
+Loytel...? I don’t think so, though I do know Loyter.</t>
+  </si>
+  <si>
+    <t>larnneire</t>
+  </si>
+  <si>
+    <t>あら、獣に変えられた王子の童話を、あなたは知っているの？
+私達はヴィンデールの森からの使者。
+公正なるジャビ王と会見し、森とエレアの民に降りかかる嫌疑を晴らすために、王都パルミアに向かっているの。
+アセリア大陸から大洋を隔たち、ティリス大陸の北に位置するのがノースティリスよ。
+あなたに風の加護のあらんことを。
+ここはどこかしら…？
+ミシリア？ ええ、知っているわ。でもミシリアは…
+人間は…怖いと思う。でも、同時に興味を惹かれるの。
+人間の抱く欲求の多くを、エレアは持たない。私たちは所有することにも、支配や戦うことにも興味がないの。それが良いことかは別としてね。</t>
+  </si>
+  <si>
+    <t>Oh, you know the fairy tale of the prince who was turned into an ugly beast?
+We are messengers from Vindale.
+Our journey ends here in North Tyris at the great city of Palmia where we're supposed to have a talk with King Xabi, a man of fairness and compassion.
+North Tyris is a continent in the western hemisphere of Ylva.
+May Wind always be with you.
+...Where have we come?
+Mysilia? Yes, I know it. But Mysilia is...
+Humans... they frighten me, yet they hold such allure.
+Most of the cravings that dwell in human hearts are absent in us Elea. We have no interest in owning, in ruling, or in fighting. But whether that is for the better is another matter.</t>
+  </si>
+  <si>
+    <t>lomias</t>
+  </si>
+  <si>
+    <t>見たところ君はノースティリスの人間ではないようだ。
+君はこの世界で何を見て、如何な足跡を残すのかな？
+おかしな場所に迷い込んでしまったぞ。
+パルミアに向かう旅の途中なんだ。
+何を言っている？ 今はシエラ暦517年だろう？
+ヴェルニースを開拓？ 君は頭でも打ったのか？
+奇遇だな。君とよく似た冒険者を介護してきたところだ。
+まったく、我々の急を要する旅が、行き倒れの冒険者のせいで遅れてしまったよ。
+…そんな物珍しげな顔をするな。君の察する通り、我々は森の民だ。君たちが「異形」と呼ぶ森の。
+森の「外」に出たエレアを、森は二度と受け入れない。もちろん、私とラーネイレは別だ。人間と関わるのは「使者」の役目だからな。
+ラーネイレはエレアの中でも特別な血筋を受け継いでいる。おっと、彼女に口酸っぱく言われる前にこの話は止めておこう！</t>
+  </si>
+  <si>
+    <t>It looks like you aren't familiar with this land.
+What will you see in this world, and what footprints will you leave behind?
+Hah, we’ve wandered into a strange place.
+We are on our way to Palmia.
+What are you talking about? It’s the year 517 of Sierra Terre. of course.
+Pioneering Vernis? Did you hit your head?
+What a coincidence. we just finished tending to an adventurer who looked a lot like you.
+Honestly, our urgent journey has been delayed all because of a collapsed adventurer.
+...Stop your curious eyes. Yes, we are kin of the Forest. The forest which you deride as "Other".
+Once an Elea leaves the Forest, the Forest shall never receive them again. Naturally, Larnneire and I stand apart, for it is the envoy’s role to treat with humans.
+Larnneire inherits a bloodline unlike any other among the Elea. But I had better say no more, lest she remind me sharply again!</t>
+  </si>
+  <si>
+    <t>O que é este lugar?
+Deuses? Eles são apenas um pouco mais fortes e mais arrogantes que os humanos.
+O comportamento humano é sempre guiado pela falha da emoção.
+Quando uma máquina quebra, é culpa do seu design, não é?
+Um dia, as máquinas governarão a terra no lugar da humanidade.
+Eu lembro de tudo que criei—sem exceção.
+Eu me recuso a reconhecer algo tão irracional quanto um deus.
+Por que há dois de mim aqui?
+Que lugar entediante. Exceto, é claro, pelo fato de que há dois de mim.
+...Este braço? Claro que eu mesmo o substituí.
+Você acha que estou atrás do trono dos deuses? Heh, que pensamento engraçado. Prefiro muito mais abrir sua cabeça e ver como funciona.
+...Por que há tantos gatos aqui?</t>
+  </si>
+  <si>
+    <t>Estranho... Não consigo me lembrar de nada.</t>
+  </si>
+  <si>
+    <t>Tanelorn? Ah, já ouvi alguém chamar este lugar por esse nome antes.
+O que foi? Você também deseja ser mimado por mim?
+O tempo não tem significado aqui.
+Oh? Um viajante, um perdido, ou talvez apenas um tolo vagando sem saber aonde veio?
+Muwohoho... quão cortês de sua parte me cumprimentar, mortal.
+Gatos realmente são os melhores, não são?
+No fim, todo convidado parte—esquecendo este jardim, e retornando para onde, e quando, eles pertenceram.
+Aqui neste jardim, todas as almas conhecem a paz.
+Todos que vagam por aqui partem com um fragmento de sua calma eterna.
+Aqui, corações flutuam como pétalas sobre águas calmas, intocados pelo tempo.
+Este jardim se lembra de toda alma que já encontrou descanso dentro de seu silêncio.
+Um dia, vou afofar a Deusa da Fortuna até me satisfazer.</t>
+  </si>
+  <si>
+    <t>Hehe, irmão, para onde você foi?
+Olá, viajante. Por favor, tome seu tempo e descanse aqui.
+Este é um lugar tão pacífico. Estar aqui quase faz você esquecer do próprio tempo...
+Eu me separei do meu irmão no caminho para a peça. O que será que aconteceu?
+Nenhum de nós está realmente interessado em teatro, mas em Zanan, é considerado parte da educação de um nobre.
+Você sabia? ...Há fadas em Altheheit, sabe.
+Mesmo não parecendo, meu irmão é inútil sem mim, hehe.
+Loyter uma vez jogou uma pedra em uma sala de concertos e foi banido de entrar.
+Sempre que trago um presentinho para Loyter, ele ainda cora como um menino.
+Loytel...? Acho que não, embora eu conheça Loyter.</t>
+  </si>
+  <si>
+    <t>Oh, você conhece o conto de fadas do príncipe que foi transformado em uma besta horrível?
+Somos mensageiros de Vindale.
+Nossa jornada termina aqui em North Tyris na grande cidade de Palmia onde devemos ter uma conversa com o Rei Xabi, um homem de justiça e compaixão.
+North Tyris é um continente no hemisfério ocidental de Ylva.
+Que o Vento esteja sempre com você.
+...Onde nós viemos parar?
+Mysilia? Sim, eu conheço. Mas Mysilia é...
+Humanos... eles me assustam, mas possuem tanto fascínio.
+A maioria dos desejos que habitam nos corações humanos estão ausentes em nós Elea. Não temos interesse em possuir, em governar, ou em lutar. Mas se isso é melhor é outra questão.</t>
+  </si>
+  <si>
+    <t>Parece que você não está familiarizado com esta terra.
+O que você verá neste mundo, e que pegadas você deixará para trás?
+Hah, vagamos para um lugar estranho.
+Estamos a caminho de Palmia.
+Do que você está falando? É o ano 517 de Sierra Terre. é claro.
+Desbravar Vernis? Você bateu a cabeça?
+Que coincidência. acabamos de terminar de cuidar de um aventureiro que se parecia muito com você.
+Honestamente, nossa jornada urgente foi atrasada tudo por causa de um aventureiro caído.
+...Pare com seus olhos curiosos. Sim, somos parentes da Floresta. A floresta que vocês ridicularizam como "Outro".
+Uma vez que um Elea deixa a Floresta, a Floresta nunca mais os receberá novamente. Naturalmente, Larnneire e eu ficamos separados, pois é o papel do enviado tratar com humanos.
+Larnneire herda uma linhagem diferente de qualquer outra entre os Elea. Mas é melhor eu não dizer mais nada, para que ela não me lembre severamente de novo!</t>
+  </si>
+  <si>
+    <t>fairy_raina</t>
+  </si>
+  <si>
+    <t>アタシはライナ！迂闊に触れると痺れさせちゃうよっ！
+あら、冒険者さん。アタシに何か用？
+ポイナとの関係？まぁ～ただのいたずら仲間ってカンジ？でもなんだかんだで一緒に冒険してる長い付き合いよ。
+ナナスのことは別に嫌いじゃないのよ？ただ…ちょっといたずらして焼きナスにしたいだけ！キャハハ！
+初めてポイナとナナスとアタシの3人で冒険した時、ナナスがドジかまして死にかけたよ…アタシの機転で何とかなったけど、全く…
+鞄の時はナナスとは別行動だったけど、ナナスと一緒に冒険することもあるよ。ま、殆どデコイ役だけどね！キャハハ！
+最近だとアタシ含めてスペクウィングの妖精達が冒険に出る事が多くなったよ。ま、ライバルが増えるのは悪くはないけどねっ！
+…アタシが熱を出した時、ナナスが看病してくれた事があったよ。その時はありがとうって言えなかったけど、感謝はしてる。
+スペクウィングの創設者と言われている青いナスの妖精…？ああ、アイツね…昔アタシも稽古してもらってた、でも一回も勝てなかった！
+青いナスの妖精にはいつかリベンジしようと思ってた、でもいつの間にかどっかに行っちゃった！…勝ち逃げされた気分でくやしい！</t>
+  </si>
+  <si>
+    <t>I'm Raina! Touch me carelessly and I'll make you tingle!
+Oh, adventurer. You need something from me?
+My relationship with Poina? Well~ just like mischief partners, I guess? But we've been adventuring together for ages, one way or another.
+I don't dislike Nanasu, you know? I just... want to play a little prank and turn her into grilled eggplant!
+The first time Poina, Nanasu, and I went on an adventure together, Nanasu messed up and nearly died... I managed to save the day with my quick thinking, but seriously...
+During the bag scramble, I was on a separate mission from Nanasu, but I do go on adventures with her sometimes. Well, mostly she's just the decoy though!
+Lately, the fairies of Specwing have been going on more adventures. Well, having more rivals isn't so bad either!
+When I had a fever, Nanasu took care of me. I couldn't thank her at the time, but I'm grateful.
+The Blue Eggplant Fairy, said to be Specwing's founder...? Ah, her... I used to train under her too, but I never won a single match!
+I'd been planning to get revenge on Blue Eggplant Fairy someday, but before I knew it, she'd vanished! ...Feels like she got away with it, and it's so frustrating!</t>
+  </si>
+  <si>
+    <t>fairy_poina</t>
+  </si>
+  <si>
+    <t>私はポイナ、余計な事言うと毒を喰らわせるからな。
+…なんだ？何か用か？
+ライナは戦いを甘く見てる時がある。冒険は遊びじゃないと何度言えば分かるんだか、バカがよ…
+ナナスは甘すぎる。アイツは絆を大事にしていると言っているが、それだけだといつか足元をすくわれるだろうな…
+ライナとは長い付き合いだが、いたずら仲間程度の認識だ。だが一緒に冒険をするのは嫌いじゃない。
+私は奇襲を仕掛ける方が好きだが、ライナがすぐに突っ込んでいくから余計な消耗をすることになる…バカがよ…
+ライナからナナスと一緒に初めて冒険をした話は聞いたか？その時ナナスは自分が皆を危険な目に合わせたことに泣いてたさ、ハハッ。
+…ナナスは昔、私が落とし物をした際に必死になって探してくれたことがある。普段こっちがいたずらしてばっかなのに…バカがよ…
+昔、ナナスやライナと共に青いナスの妖精に稽古をつけてもらったことがある。だがアイツには私の毒攻撃が殆ど効いていなかった。
+今の私とライナ、そしてナナスの3人であれば青いナスの妖精に勝てるだろうか？だがアイツはもう何処かに行って久しいからな…</t>
+  </si>
+  <si>
+    <t>I'm Poina. Say one wrong thing and I'll attack you with poison.
+What? You need something?
+Raina sometimes underestimates the fight. How many times do I have to tell you that adventure isn't a game, idiot...
+Nanasu is way too sweet. She says she values bonds, but if that's all she has, she'll get tripped up someday...
+I've known Raina for a long time, but I only think of her as a fellow prankster. Still, I don't mind adventuring with her.
+I prefer launching surprise attacks, but Raina always charges in headfirst, leading to unnecessary wear and tear... What an idiot...
+Did you hear about Raina's first adventure with Nanasu? Back then, Nanasu was crying because she thought she'd put everyone in danger.
+Nanasu once searched desperately for something I lost. Even though I'm always the one pulling pranks... idiot...
+Long ago, I trained with Nanasu and Raina under the blue eggplant fairy. But my poison attacks barely affected her.
+Can Raina, Nanasu, and I defeat the blue eggplant fairy? But she's been traveling somewhere for a long time now...</t>
+  </si>
+  <si>
+    <t>girl_blue</t>
+  </si>
+  <si>
+    <t>雪プチちゃん、かわいいですよね……フフフ……。
+ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
+ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
+不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
+可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
+黒い翼の冒険者さん、かっこいいですよね……。
+魔法使いの冒険者さん、何やら物騒な本を持っているような……。
+運命の導きを信じる冒険者さん、何だか情熱的ですよね。
+猫を……吸う？……冒険者が居るとか……？
+ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
+  </si>
+  <si>
+    <t>Snow Putit is just too cute... hehe.
+I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
+All I want is a normal life... So why does trouble always find me? *sigh*
+That adventurer talks so oddly... and yet, somehow we still had a conversation.
+That cute, doll-like adventurer... always searching for someone.
+That adventurer with black wings... they look really cool.
+That adventurer mage... carrying a book that feels kinda dangerous.
+That adventurer who believes in fate... so passionate, huh.
+An adventurer who... ‘inhales cats’? ...Wait, what?
+That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
+  </si>
+  <si>
+    <t>rodwyn</t>
+  </si>
+  <si>
+    <t>私の料理に使われているのは全部最高級の素材。
+私のホウキコレクション、見てみたい？
+ええと…イモリの舌に…ハチの目。あら？ ごめんなさい、そこにいるのに気づかなかったわ。新しいレシピを考えていたの。
+あれ、この辺りにネコいなかった？
+もちろんパンは窯で焼けるわよ？ 
+薬棚？  ちゃんと見なさい、スパイスの棚でしょ！
+私の帽子？　ふふ、素敵でしょ？
+（魔女は虫が詰まっているような袋をミキシングボウルにどさっと入れた。）
+……質問が多いのねぇ…</t>
+  </si>
+  <si>
+    <t>I only use the highest quality ingredients for my baked goods.
+Would you like to see my broom collection?
+Let’s see…Tongue of newt. Eye of bee. Oh? Sorry, I didn’t notice you there. I was thinking of a new recipe.
+Have you seen any cats nearby?
+Of course you can bake bread in a kiln! Don’t you?
+My chemistry rack? Those are obviously spices!
+My hat? Cool right?
+(You watch her dump what appears to be a sack of bugs into a mixing bowl.) 
+You sure do ask a lot of questions…</t>
+  </si>
+  <si>
+    <t>Sou Raina! Me toque descuidadamente e vou fazer você formigar!
+Oh, aventureiro. Você precisa de algo comigo?
+Meu relacionamento com Poina? Bem~ tipo parceiras de travessuras, eu acho? Mas estamos em aventuras juntas há muito tempo, de um jeito ou de outro.
+Eu não desgosto de Nanasu, sabe? Eu só... quero pregar uma travessurinha e transformá-la em berinjela grelhada!
+Na primeira vez que Poina, Nanasu e eu fomos em aventura juntas, Nanasu errou feio e quase morreu... Consegui salvar a situação com meu raciocínio rápido, mas sério...
+Durante a disputa das bolsas, eu estava em uma missão separada de Nanasu, mas eu vou em aventuras com ela às vezes. Bem, na maioria das vezes ela é só a isca!
+Ultimamente, as fadas de Specwing têm ido em mais aventuras. Bem, ter mais rivais não é tão ruim assim!
+Quando eu tive febre, Nanasu cuidou de mim. Não consegui agradecer a ela na hora, mas sou grata.
+A Fada da Berinjela Azul, que dizem ser a fundadora de Specwing...? Ah, ela... Eu costumava treinar com ela também, mas nunca venci uma única luta!
+Eu estava planejando me vingar da Fada da Berinjela Azul algum dia, mas antes que percebesse, ela tinha desaparecido! ...Parece que ela escapou impune, e isso é tão frustrante!</t>
+  </si>
+  <si>
+    <t>Sou Poina. Diga uma coisa errada e vou atacar você com veneno.
+O quê? Você precisa de algo?
+Raina às vezes subestima a luta. Quantas vezes tenho que dizer que aventura não é brincadeira, idiota...
+Nanasu é doce demais. Ela diz que valoriza laços, mas se isso é tudo que ela tem, vai tropeçar algum dia...
+Conheço Raina há muito tempo, mas só penso nela como uma colega travessa. Ainda assim, não me importo de ir em aventuras com ela.
+Prefiro lançar ataques surpresa, mas Raina sempre avança de cabeça, levando a um desgaste desnecessário... Que idiota...
+Você ouviu sobre a primeira aventura de Raina com Nanasu? Naquela época, Nanasu estava chorando porque achava que tinha colocado todos em perigo.
+Nanasu uma vez procurou desesperadamente por algo que perdi. Mesmo eu sendo sempre a que prega peças... idiota...
+Muito tempo atrás, treinei com Nanasu e Raina sob a fada da berinjela azul. Mas meus ataques de veneno mal a afetavam.
+Raina, Nanasu e eu podemos derrotar a fada da berinjela azul? Mas ela está viajando por aí há muito tempo...</t>
+  </si>
+  <si>
+    <t>Snow Putit é simplesmente fofo demais... hehe.
+Eu queria ser tão livre quanto um gato... Se existe um deus dos gatos, ele deve ser a própria liberdade.
+Tudo que quero é uma vida normal... Então por que problemas sempre me encontram? *suspiro*
+Aquele aventureiro fala tão estranhamente... e ainda assim, de alguma forma conseguimos conversar.
+Aquele aventureiro fofo, parecido com uma boneca... sempre procurando por alguém.
+Aquele aventureiro com asas negras... eles parecem muito legais.
+Aquele aventureiro mago... carregando um livro que parece meio perigoso.
+Aquele aventureiro que acredita no destino... tão apaixonado, hein.
+Um aventureiro que... 'inala gatos'? ...Espera, o quê?
+Aquela padaria da bruxa em Mysilia é tão adorável... Uma loja de verdade, bem no meio da cidade. Uma bruxa... e uma padeira!</t>
+  </si>
+  <si>
+    <t>Eu só uso ingredientes da mais alta qualidade para meus assados.
+Gostaria de ver minha coleção de vassouras?
+Vejamos... Língua de tritão. Olho de abelha. Oh? Desculpe, não percebi você aí. Estava pensando em uma nova receita.
+Você viu algum gato por perto?
+Claro que você pode assar pão em um forno! Você não faz?
+Minha estante de química? Essas são obviamente especiarias!
+Meu chapéu? Legal, né?
+(Você a observa despejar o que parece ser um saco de insetos em uma tigela de mistura.)
+Você com certeza faz muitas perguntas...</t>
+  </si>
+  <si>
+    <t>eyth</t>
+  </si>
+  <si>
+    <t>…ピー…
+…ザザザ…
+…ザザ…ガガ…</t>
+  </si>
+  <si>
+    <t>…bneep…
+…zzzzzz…
+…zshh…beep……</t>
+  </si>
+  <si>
+    <t>jure</t>
+  </si>
+  <si>
+    <t>…なで…なで…
+…ぎゅぅーっ…
+…ぎゅーーーーっ…
+…よし…よし…
+…ば…ばか…
+…か…勘違いしないでよね…
+…べ…べつに…あなたのためじゃ…
+…べ…べつに…
+…ひ…暇だっただけなんだからね…
+…んっ…っしょ…
+…い…癒やされなさい…
+…ふ…ふあぁぁ…
+…えっほ…えっほ…
+…迷える…ものたちよ…
+…い…癒やし…
+…傷ついた…魂を…</t>
+  </si>
+  <si>
+    <t>…p-pat…pat…
+…huuug…
+…huuuuuug…
+…there you go…there you go…
+…y-you idiot…
+…d-don’t get the wrong idea, okay…
+…i-it’s not like i’m doing this for you or anything…
+…i-it’s…really not…
+…i just…h-happened to have some time, that’s all…
+…mm…there…
+…y-you should…let yourself relax…
+…f-fuuaaah…
+…eh-ho…eh-ho…
+…oh…you who wander…
+…h-healing…
+…for your…wounded souls…</t>
+  </si>
+  <si>
+    <t>opatos</t>
+  </si>
+  <si>
+    <t>…ゴリ…ゴリゴリ…
+…ゴゴゴゴ……
+…ズズズ……
+…ドシャァ……
+…ズシャッ…ズシャァ……
+…ガリ…ガリガリ……
+…ゴォ……ゴォォ……
+…ミシ…ミシミシ……
+…バキ……バキバキ……
+…ザラ……ザラザラ……
+…ゴン……ゴン……
+…ズン……ズゥン……
+…ドゥン……
+…フハハハハハハハ……
+…フハハ……フハァ……
+…フハーン……
+…フフ……フハ……
+@3フハハハハハハハハハハハハハ！ 
+@3フハーン
+…フフ……
+…フー…！…フー…！……</t>
+  </si>
+  <si>
+    <t>…grrr…grind grind…
+…goooogoooo……
+…rumble……
+…crashhh……
+…shrrk…shraaa……
+…scrape…scrrrape……
+…gooo……grooo……
+…creak…craaack……
+…crack…crack crack……
+…grain…grind grind……
+…thud……thud……
+…boom……booom……
+…dunn……
+…muwahaha…
+…mwahahahaha…
+…muhan…
+…muwaha…muwaha…
+@3MUWAHAHAHAHAHAHAHA!
+@3MUHAN
+…muha……
+…mu…ha……mu…ha……</t>
+  </si>
+  <si>
+    <t>horome</t>
+  </si>
+  <si>
+    <t>…大丈夫…ママがちゃんとそばにいるからね…
+…おやすみ…いい子…
+…ママのお胸に…もたれてもいいよ…
+…ちゃんと生きてるだけで…えらい…
+…ほら…頭なでなで…安心して…
+…ほら…力を抜いて…
+…よしよし…
+…このまま…ぬくぬくしていきましょ…
+…なで…なで…力、抜いて…
+…ん…よしよし…いい子…
+…ぬくぬく…このまま…
+…もう…何も考えなくて…
+…ふわふわでしょう…落ち着くわね…
+…この尻尾…巻いてあげる…
+…ふわ…もふ…ほら…尻尾…
+…すり…すり…やさしく…巻くわね…
+…ぬく…ぬく…眠くなる…
+…そのまま…くっついて…
+…すぅ…はぁ…一緒に…呼吸…
+…ママだよ…
+…なで…なで…力…抜いて…
+…ほら…ぎゅううぅぅぅううっ…</t>
+  </si>
+  <si>
+    <t>…it’s okay…mommy’s right here with you…
+…good night…sweet one…
+…you can rest against mommy…it’s okay…
+…just being here…is already enough…
+…here…gentle head pats…you’re safe…
+…that’s it…relax…
+…there there…
+…let’s stay warm…just like this…
+…pat…pat…let it go…
+…mm…there there…good one…
+…warm…cozy…just like this…
+…no more thinking…now…
+…fluffy, isn’t it…it calms you…
+…i’ll wrap you…with my tail…
+…fluff…mofu…here…my tail…
+…rub…rub…gently…wrapping you…
+…warm…cozy…getting sleepy…
+…stay close…like that…
+…inhale…exhale…with me…
+…it’s mommy…
+…pat…pat…let it go…
+…there…huuuuuuuuuug…</t>
+  </si>
+  <si>
+    <t>demitas</t>
+  </si>
+  <si>
+    <t>…ククク……
+…クク……
+…ク……ククク……
+…クク……クク…
+…ほら…還れ…
+…元素へ……
+…還れ…
+…元素へ…クク…
+…ク…ク…ク……
+…ク…ク…
+…クク…ク…
+…はやく…
+…クククク…
+…ククククク…
+…クク…クク…クク…
+………
+………
+……キウイ…クク…
+……
+…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…heh heh heh……
+…heh heh……
+…heh……heh heh……
+…heh heh……heh heh…
+…now… return…
+…to the elements……
+…return…
+…to the elements… heh heh…
+…heh… heh… heh……
+…heh… heh…
+…heh heh… heh…
+…hurry…
+…heh heh heh heh…
+…heh heh heh heh heh…
+…heh heh… heh heh… heh heh…
+………
+………
+……kiwi… heh heh…
+……
+… </t>
+  </si>
+  <si>
+    <t>lulwy</t>
+  </si>
+  <si>
+    <t>…ふぅん…こういうのが好きなの…？
+…とんだ変態ね… 
+…この…豚野郎……アハハ……！
+…あら…震えてる……かわいそうに…
+…見下されるの…好きでしょう…？
+…虫ケラの分際で……アハハハ… 
+…小さい……ほんと……小さい……
+…アハ……笑えるわ……
+…アハハ……ミンチ……ミンチィ……！
+…哀れね……
+…ほら…もっと晒しなさい…
+…女神の前で…よくそんな顔できるわね…
+…アハハ…みじめな豚… 
+…その顔…最高に…無様ねぇ…
+…ほら…地面に這いつくばりなさい…
+…アハ…風も笑ってるわよ…
+…誰が…女神を見ていいって…言った…？
+…次に顔上げたら…ミンチよ…
+…アハッ…みじめな定命者ァ…
+…ほんと…分かりやすい…
+…アハハ…どうしようもないわね…
+…無様ね…罵られて…喜んじゃって…
+…この…変態…
+…ああ…今の…嬉しかったでしょ…？
+…ゴミが…
+…そのまま…無価値でいなさい…
+…ねえ…下心でもあるの…？
+…ああ…図星ね……アハハ！
+…存在してるだけで…不快…アハッ…
+…ほんと…救いようのない変態ね…</t>
+  </si>
+  <si>
+    <t>…oh… so this is what you like…?
+…what a degenerate…
+…you… filthy pig… ahaha…!
+…oh… you’re trembling… how adorable…
+…you like being looked down on… don’t you…?
+…a mere insect… ahahaha…
+…so small… truly… tiny…
+…aha… amusing…
+…ahaha… minced… so minced…!
+…pathetic…
+…come on… show me more…
+…making that face… in front of a goddess…
+…ahaha… pathetic pig…
+…that face… absolutely… disgraceful…
+…come on… crawl on the ground…
+…aha… the wind is laughing…
+…you think… you could look at a goddess…?
+…raise your head again… and you’re minced…
+…ahah… miserable mortal…
+…you’re… so easy to read…
+…ahaha… you’re hopeless…
+…pathetic… getting insulted… and enjoying it…
+…you… pervert…
+…ah… that just now… felt good, didn’t it…?
+…trash…
+…stay… worthless…
+…hey… do you have ulterior motives…?
+…ah… right on the mark…!
+…your mere existence… is irritating…aha…
+…truly… hopeless…pervert…</t>
+  </si>
+  <si>
+    <t>ehekatl</t>
+  </si>
+  <si>
+    <t>@3うみみゃあ！
+@3たらばがに！
+…スリ…
+…スリスリ…
+…ペロ…
+…ペロペロ…
+…コツン…
+…うみ…
+…みみみ…
+…み…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>@3UMIMYAA!
+@3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">King crab!
+…rub…
+…rub rub…
+…lick…
+…lick lick…
+…bonk…
+…meo…
+…meo… w…
+…m… </t>
+    </r>
+  </si>
+  <si>
+    <t>fox_maid</t>
+  </si>
+  <si>
+    <t>…おはようございます、ご主人さま…
+…お茶をお持ちしますね…
+…ご不在の間、お屋敷のことは私がきちんとお預かりしていました…
+…わ、私だけ…家族の中で胸が控えめなのは嫌です…
+…脚立…どこにありましたっけ…？
+…あ…お顔に、何かついてますよ…
+…ご主人さまの代わりに…私がやりますから…
+…あとどれくらい…お餅をつけばいいんでしょう…？
+…きゃあっ！…
+…ご、ご主人さま…！
+…お世話するのはメイドとしての務めですけど……たとえそうじゃなくても、私はします…
+…今夜のご夕食は…何になさいますか、ご主人さま…？
+…はい、あーん…♥
+…スッポンは…滋養にいいって聞きました…
+…高い棚のもの、抱き上げなくても大丈夫ですよ…？
+…ご主人さまとこんなに近いと…メイドとして、少し落ち着きません…
+…ちゃんと運動もしてくださいね…？
+…私…ちゃんとできてましたか、ご主人さま…？
+…ミ、ミルクですか…？ そ、それは……</t>
+  </si>
+  <si>
+    <t>…Good morning, Master…
+…Allow me to serve you your tea…
+…I've stewarded your affairs while you were away…
+…I don't want to be the only flat one in my family…
+…Have you seen the stepladder…?
+…You have something on your face…
+…I'll gladly do it so you don't have to…
+…How much more mochi do I have to pound…?
+…Kyaaa!…
+…M-master…!
+…It's my duty to take care of you…but even if it weren't, I'd do it anyway…
+…What would you like for dinner tonight, Master…?
+…Open wide~♥
+…I've heard soft-shelled turtle is good for stamina…
+…You don't have to lift me so I can reach the high shelf…
+…It feels awkward to be this close with you when I'm your maid…
+…Be sure to get some exercise, okay…?
+…Did I do a good job, Master…?
+…Milk? B-but…</t>
+  </si>
+  <si>
+    <t>…c-cafuné…cafuné…
+…abraaaço…
+…abraaaaaaço…
+…pronto…pronto…
+…v-você é um idiota…
+…n-não se confunda, ok…
+…n-não é como se eu estivesse fazendo isso por você ou algo assim…
+…n-não é…de verdade…
+…eu só…a-aconteceu de eu ter um tempo, só isso…
+…mm…pronto…
+…v-você deveria…se deixar relaxar…
+…f-fuuaaah…
+…eh-ho…eh-ho…
+…oh…você que vaga…
+…c-cura…
+…para suas…almas feridas…</t>
+  </si>
+  <si>
+    <t>…grrr…tritura tritura…
+…goooogoooo……
+…estrondo……
+…crashhh……
+…shrrk…shraaa……
+…raspa…raaaaaspa……
+…gooo……grooo……
+…rangido…craaack……
+…crack…crack crack……
+…grão…tritura tritura……
+…bum……bum……
+…boom……booom……
+…dunn……
+…muwahaha…
+…mwahahahaha…
+…muhan…
+…muwaha…muwaha…
+@3MUWAHAHAHAHAHAHAHA!
+@3MUHAN
+…muha……
+…mu…ha……mu…ha……</t>
+  </si>
+  <si>
+    <t>…está tudo bem…mamãe está bem aqui com você…
+…boa noite…docinho…
+…você pode descansar em mamãe…está tudo bem…
+…só estar aqui…já é o suficiente…
+…aqui…cafunés gentis…você está seguro…
+…isso mesmo…relaxe…
+…pronto pronto…
+…vamos ficar quentinhos…assim mesmo…
+…cafuné…cafuné…deixe ir…
+…mm…pronto pronto…bom menino…
+…quentinho…aconchegante…assim mesmo…
+…não pense mais…agora…
+…fofinho, não é…te acalma…
+…vou te envolver…com minha cauda…
+…fofo…mofu…aqui…minha cauda…
+…esfrega…esfrega…gentilmente…envolvendo você…
+…quentinho…aconchegante…ficando com sono…
+…fique perto…assim…
+…inspira…expira…comigo…
+…é a mamãe…
+…cafuné…cafuné…deixe ir…
+…pronto…abraaaaaaaço…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…heh heh heh……
+…heh heh……
+…heh……heh heh……
+…heh heh……heh heh…
+…agora… retorne…
+…aos elementos……
+…retorne…
+…aos elementos… heh heh…
+…heh… heh… heh……
+…heh… heh…
+…heh heh… heh…
+…rápido…
+…heh heh heh heh…
+…heh heh heh heh heh…
+…heh heh… heh heh… heh heh…
+………
+………
+……kiwi… heh heh…
+……
+… </t>
+  </si>
+  <si>
+    <t>…oh… então é disso que você gosta…?
+…que degenerado…
+…você… porco imundo… ahaha…!
+…oh… você está tremendo… que adorável…
+…você gosta de ser desprezado… não é…?
+…um mero inseto… ahahaha…
+…tão pequeno… realmente… minúsculo…
+…aha… divertido…
+…ahaha… picado… tão picado…!
+…patético…
+…vamos… me mostre mais…
+…fazendo essa cara… na frente de uma deusa…
+…ahaha… porco patético…
+…essa cara… absolutamente… vergonhosa…
+…vamos… rasteje no chão…
+…aha… o vento está rindo…
+…você acha… que poderia olhar para uma deusa…?
+…levante a cabeça de novo… e você será picado…
+…ahah… mortal miserável…
+…você é… tão fácil de ler…
+…ahaha… você é impossível…
+…patético… sendo insultado… e gostando disso…
+…você… pervertido…
+…ah… aquilo agora… foi bom, não foi…?
+…lixo…
+…continue… inútil…
+…ei… você tem segundas intenções…?
+…ah… acertei em cheio…!
+…sua mera existência… é irritante…aha…
+…realmente… impossível…pervertido…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @3UMIMYAA!
+ @3Caranguejo rei!
+…esfrega…
+…esfrega esfrega…
+…lambe…
+…lambe lambe…
+…bonk…
+…meo…
+…meo… w…
+…m… </t>
+  </si>
+  <si>
+    <t>…Bom dia, Mestre…
+…Permita-me servir seu chá…
+…Cuidei de seus assuntos enquanto estava fora…
+…Eu não quero ser a única sem peito na minha família…
+…Você viu a escada…?
+…Você tem algo no seu rosto…
+…Farei com prazer para que você não precise fazer…
+…Quanto mais mochi eu tenho que socar…?
+…Kyaaa!…
+…M-mestre…!
+…É meu dever cuidar de você…mas mesmo que não fosse, eu faria de qualquer jeito…
+…O que gostaria de jantar hoje, Mestre…?
+…Abre a boca~♥
+…Ouvi dizer que tartaruga de casca mole é boa para vigor…
+…Você não precisa me levantar para eu alcançar a prateleira alta…
+…É estranho estar tão perto de você quando sou sua empregada…
+…Certifique-se de fazer exercícios, ok…?
+…Eu fiz um bom trabalho, Mestre…?
+…Leite? M-mas…</t>
   </si>
 </sst>
 </file>
@@ -3143,13 +4070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -3555,661 +4482,714 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" t="s">
+        <v>570</v>
+      </c>
+      <c r="C33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A34" t="s">
+        <v>563</v>
+      </c>
+      <c r="B34" t="s">
+        <v>571</v>
+      </c>
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33">
+      <c r="A35" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>422</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>422</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>424</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>428</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>566</v>
+      </c>
+      <c r="C41" t="s">
+        <v>567</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>432</v>
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>428</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="33">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>436</v>
+        <v>120</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A55" t="s">
-        <v>549</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>444</v>
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>441</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>445</v>
+        <v>549</v>
+      </c>
+      <c r="B59" t="s">
+        <v>552</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>161</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" t="s">
-        <v>448</v>
+        <v>156</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" t="s">
-        <v>449</v>
+        <v>159</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>450</v>
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>446</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>451</v>
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>447</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="49.5">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>452</v>
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>448</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="49.5">
+        <v>169</v>
+      </c>
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>453</v>
+        <v>171</v>
+      </c>
+      <c r="B67" t="s">
+        <v>449</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" t="s">
-        <v>454</v>
-      </c>
-      <c r="C68" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" t="s">
-        <v>188</v>
+        <v>174</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" t="s">
-        <v>455</v>
-      </c>
-      <c r="C69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="49.5">
       <c r="A70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>456</v>
+        <v>180</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="49.5">
       <c r="A71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>457</v>
+        <v>183</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>458</v>
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>454</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>459</v>
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>455</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="33">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33">
+      <c r="A78" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C81" t="s">
         <v>214</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
         <v>217</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4762,13 +5742,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -4802,495 +5782,780 @@
     <row r="4" spans="1:4">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="82.5">
+    <row r="5" spans="1:4" ht="214.5">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>572</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>474</v>
+        <v>590</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>573</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="82.5">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>475</v>
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>591</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99">
-      <c r="A7" t="s">
-        <v>309</v>
+        <v>576</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="214.5">
+      <c r="A7" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>476</v>
+        <v>592</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>310</v>
+        <v>579</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="181.5">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>581</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>313</v>
+        <v>582</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="82.5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="181.5">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>584</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>585</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="66">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="231">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>587</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>479</v>
+        <v>595</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>319</v>
+        <v>588</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>320</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="99">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="82.5">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="99">
       <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" t="s">
-        <v>482</v>
+        <v>309</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="82.5">
+        <v>310</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="49.5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="82.5">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66">
       <c r="A16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.5">
+      <c r="A17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="82.5">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="49.5">
+      <c r="A21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="66">
+      <c r="A22" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5">
-      <c r="A17" t="s">
+    <row r="23" spans="1:4" ht="49.5">
+      <c r="A23" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="66">
-      <c r="A18" t="s">
+    <row r="24" spans="1:4" ht="66">
+      <c r="A24" t="s">
         <v>342</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="49.5">
-      <c r="A19" t="s">
+    <row r="25" spans="1:4" ht="49.5">
+      <c r="A25" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="87">
-      <c r="A20" t="s">
+    <row r="26" spans="1:4" ht="87">
+      <c r="A26" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="115.5">
-      <c r="A21" t="s">
+    <row r="27" spans="1:4" ht="115.5">
+      <c r="A27" t="s">
         <v>351</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="115.5">
-      <c r="A22" t="s">
+    <row r="28" spans="1:4" ht="115.5">
+      <c r="A28" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>357</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
         <v>492</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D29" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="132">
-      <c r="A24" t="s">
+    <row r="30" spans="1:4" ht="132">
+      <c r="A30" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>454</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>494</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="148.5">
-      <c r="A27" s="8" t="s">
+    <row r="33" spans="1:4" ht="148.5">
+      <c r="A33" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>371</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>496</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="247.5">
-      <c r="A29" s="2" t="s">
+    <row r="35" spans="1:4" ht="247.5">
+      <c r="A35" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="247.5">
-      <c r="A30" s="2" t="s">
+    <row r="36" spans="1:4" ht="247.5">
+      <c r="A36" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="247.5">
-      <c r="A31" s="2" t="s">
+    <row r="37" spans="1:4" ht="247.5">
+      <c r="A37" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33">
-      <c r="A32" s="2" t="s">
+    <row r="38" spans="1:4" ht="33">
+      <c r="A38" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C38" t="s">
         <v>523</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="165">
-      <c r="A33" s="2" t="s">
+    <row r="39" spans="1:4" ht="165">
+      <c r="A39" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="198">
-      <c r="A34" t="s">
+    <row r="40" spans="1:4" ht="198">
+      <c r="A40" t="s">
         <v>528</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="181.5">
-      <c r="A35" t="s">
+    <row r="41" spans="1:4" ht="181.5">
+      <c r="A41" t="s">
         <v>531</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="181.5">
-      <c r="A36" s="8" t="s">
+    <row r="42" spans="1:4" ht="181.5">
+      <c r="A42" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="181.5">
-      <c r="A37" s="8" t="s">
+    <row r="43" spans="1:4" ht="181.5">
+      <c r="A43" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="214.5">
-      <c r="A38" s="8" t="s">
+    <row r="44" spans="1:4" ht="214.5">
+      <c r="A44" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+    <row r="45" spans="1:4" ht="280.5">
+      <c r="A45" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="297">
+      <c r="A46" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="181.5">
+      <c r="A47" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="165">
+      <c r="A48" t="s">
+        <v>605</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>607</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B700BEDE-16A6-4C8F-837C-499ECAE8E117}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111" customWidth="1"/>
+    <col min="4" max="4" width="100.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="49.5">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="264">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="346.5">
+      <c r="A7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="363">
+      <c r="A8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="330">
+      <c r="A9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.5">
+      <c r="A10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="165">
+      <c r="A11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="330">
+      <c r="A12" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>